--- a/StructureDefinition-quality-measure-report-patient.xlsx
+++ b/StructureDefinition-quality-measure-report-patient.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2865" uniqueCount="300">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2865" uniqueCount="299">
   <si>
     <t>Path</t>
   </si>
@@ -328,17 +328,14 @@
 ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
   </si>
   <si>
-    <t>measureParameterValues</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://ibm.com/fhir/cdm/StructureDefinition/measure-parameter-values}
+    <t>measureParameterValue</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://ibm.com/fhir/cdm/StructureDefinition/measure-parameter-value}
 </t>
   </si>
   <si>
-    <t>Measure parameter values used to generate the measure report.</t>
-  </si>
-  <si>
-    <t>Optional Extension Element - found in all resources.</t>
+    <t>Measure parameter value used to generate the measure report</t>
   </si>
   <si>
     <t>measureReportAssignedPractitioner</t>
@@ -358,7 +355,7 @@
 </t>
   </si>
   <si>
-    <t>Supporiting evidence showing detailed data about why a patient qualified (or did not qualify) for measure rules</t>
+    <t>Supporting evidence showing detailed data about why a patient qualified (or did not qualify) for measure rules</t>
   </si>
   <si>
     <t>MeasureReport.extension.id</t>
@@ -733,9 +730,6 @@
     <t>initial-population | numerator | numerator-exclusion | denominator | denominator-exclusion | denominator-exception | care-gap</t>
   </si>
   <si>
-    <t>The type of the population.</t>
-  </si>
-  <si>
     <t>extensible</t>
   </si>
   <si>
@@ -772,6 +766,9 @@
   </si>
   <si>
     <t>initial-population | numerator | numerator-exclusion | denominator | denominator-exclusion | denominator-exception | measure-population | measure-population-exclusion | measure-observation</t>
+  </si>
+  <si>
+    <t>The type of the population.</t>
   </si>
   <si>
     <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
@@ -791,7 +788,7 @@
     <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
   &lt;coding&gt;
     &lt;system value="http://terminology.hl7.org/CodeSystem/measure-population"/&gt;
-    &lt;code value="denominator-exclusion"/&gt;
+    &lt;code value="numerator"/&gt;
   &lt;/coding&gt;
 &lt;/valueCodeableConcept&gt;</t>
   </si>
@@ -802,7 +799,7 @@
     <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
   &lt;coding&gt;
     &lt;system value="http://terminology.hl7.org/CodeSystem/measure-population"/&gt;
-    &lt;code value="numerator"/&gt;
+    &lt;code value="denominator"/&gt;
   &lt;/coding&gt;
 &lt;/valueCodeableConcept&gt;</t>
   </si>
@@ -2143,7 +2140,7 @@
         <v>101</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="M10" s="2"/>
       <c r="N10" s="2"/>
@@ -2220,7 +2217,7 @@
         <v>91</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C11" t="s" s="2">
         <v>38</v>
@@ -2242,13 +2239,13 @@
         <v>38</v>
       </c>
       <c r="J11" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="K11" t="s" s="2">
         <v>104</v>
       </c>
-      <c r="K11" t="s" s="2">
-        <v>105</v>
-      </c>
       <c r="L11" t="s" s="2">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
@@ -2325,7 +2322,7 @@
         <v>91</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C12" t="s" s="2">
         <v>38</v>
@@ -2347,13 +2344,13 @@
         <v>38</v>
       </c>
       <c r="J12" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="K12" t="s" s="2">
         <v>107</v>
       </c>
-      <c r="K12" t="s" s="2">
-        <v>108</v>
-      </c>
       <c r="L12" t="s" s="2">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
@@ -2427,7 +2424,7 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
@@ -2453,10 +2450,10 @@
         <v>48</v>
       </c>
       <c r="K13" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="L13" t="s" s="2">
         <v>110</v>
-      </c>
-      <c r="L13" t="s" s="2">
-        <v>111</v>
       </c>
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
@@ -2507,30 +2504,30 @@
         <v>38</v>
       </c>
       <c r="AE13" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="AF13" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AG13" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AH13" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AI13" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ13" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AK13" t="s" s="2">
         <v>112</v>
-      </c>
-      <c r="AF13" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AG13" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AH13" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AI13" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AJ13" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AK13" t="s" s="2">
-        <v>113</v>
       </c>
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
@@ -2601,7 +2598,7 @@
         <v>95</v>
       </c>
       <c r="AB14" t="s" s="2">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="AC14" t="s" s="2">
         <v>38</v>
@@ -2610,7 +2607,7 @@
         <v>96</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="AF14" t="s" s="2">
         <v>39</v>
@@ -2633,10 +2630,10 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C15" t="s" s="2">
         <v>38</v>
@@ -2658,13 +2655,13 @@
         <v>38</v>
       </c>
       <c r="J15" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="K15" t="s" s="2">
         <v>118</v>
       </c>
-      <c r="K15" t="s" s="2">
-        <v>119</v>
-      </c>
       <c r="L15" t="s" s="2">
-        <v>102</v>
+        <v>118</v>
       </c>
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
@@ -2715,7 +2712,7 @@
         <v>38</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>39</v>
@@ -2738,10 +2735,10 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C16" t="s" s="2">
         <v>38</v>
@@ -2763,13 +2760,13 @@
         <v>38</v>
       </c>
       <c r="J16" t="s" s="2">
+        <v>120</v>
+      </c>
+      <c r="K16" t="s" s="2">
         <v>121</v>
       </c>
-      <c r="K16" t="s" s="2">
-        <v>122</v>
-      </c>
       <c r="L16" t="s" s="2">
-        <v>102</v>
+        <v>121</v>
       </c>
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
@@ -2820,7 +2817,7 @@
         <v>38</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>39</v>
@@ -2843,10 +2840,10 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C17" t="s" s="2">
         <v>38</v>
@@ -2868,13 +2865,13 @@
         <v>38</v>
       </c>
       <c r="J17" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="K17" t="s" s="2">
         <v>124</v>
       </c>
-      <c r="K17" t="s" s="2">
-        <v>125</v>
-      </c>
       <c r="L17" t="s" s="2">
-        <v>102</v>
+        <v>124</v>
       </c>
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
@@ -2925,7 +2922,7 @@
         <v>38</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>39</v>
@@ -2948,7 +2945,7 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
@@ -2974,13 +2971,13 @@
         <v>62</v>
       </c>
       <c r="K18" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="L18" t="s" s="2">
         <v>127</v>
       </c>
-      <c r="L18" t="s" s="2">
+      <c r="M18" t="s" s="2">
         <v>128</v>
-      </c>
-      <c r="M18" t="s" s="2">
-        <v>129</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" t="s" s="2">
@@ -2988,49 +2985,49 @@
       </c>
       <c r="P18" s="2"/>
       <c r="Q18" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="R18" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="S18" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="T18" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="U18" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="V18" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="W18" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="X18" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Y18" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Z18" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AA18" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB18" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC18" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD18" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE18" t="s" s="2">
         <v>130</v>
-      </c>
-      <c r="R18" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="S18" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="T18" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="U18" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="V18" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="W18" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="X18" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Y18" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Z18" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AA18" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AB18" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AC18" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AD18" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AE18" t="s" s="2">
-        <v>131</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>46</v>
@@ -3053,7 +3050,7 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -3076,13 +3073,13 @@
         <v>38</v>
       </c>
       <c r="J19" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="K19" t="s" s="2">
         <v>133</v>
       </c>
-      <c r="K19" t="s" s="2">
+      <c r="L19" t="s" s="2">
         <v>134</v>
-      </c>
-      <c r="L19" t="s" s="2">
-        <v>135</v>
       </c>
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
@@ -3133,7 +3130,7 @@
         <v>38</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>39</v>
@@ -3156,11 +3153,11 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" t="s" s="2">
@@ -3182,16 +3179,16 @@
         <v>92</v>
       </c>
       <c r="K20" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="L20" t="s" s="2">
         <v>139</v>
       </c>
-      <c r="L20" t="s" s="2">
+      <c r="M20" t="s" s="2">
         <v>140</v>
       </c>
-      <c r="M20" t="s" s="2">
+      <c r="N20" t="s" s="2">
         <v>141</v>
-      </c>
-      <c r="N20" t="s" s="2">
-        <v>142</v>
       </c>
       <c r="O20" t="s" s="2">
         <v>38</v>
@@ -3240,7 +3237,7 @@
         <v>38</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>39</v>
@@ -3263,7 +3260,7 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -3286,19 +3283,19 @@
         <v>47</v>
       </c>
       <c r="J21" t="s" s="2">
+        <v>144</v>
+      </c>
+      <c r="K21" t="s" s="2">
         <v>145</v>
       </c>
-      <c r="K21" t="s" s="2">
+      <c r="L21" t="s" s="2">
         <v>146</v>
       </c>
-      <c r="L21" t="s" s="2">
+      <c r="M21" t="s" s="2">
         <v>147</v>
       </c>
-      <c r="M21" t="s" s="2">
+      <c r="N21" t="s" s="2">
         <v>148</v>
-      </c>
-      <c r="N21" t="s" s="2">
-        <v>149</v>
       </c>
       <c r="O21" t="s" s="2">
         <v>38</v>
@@ -3347,7 +3344,7 @@
         <v>38</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>39</v>
@@ -3362,7 +3359,7 @@
         <v>59</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="AK21" t="s" s="2">
         <v>38</v>
@@ -3370,7 +3367,7 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -3396,13 +3393,13 @@
         <v>68</v>
       </c>
       <c r="K22" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="L22" t="s" s="2">
         <v>152</v>
       </c>
-      <c r="L22" t="s" s="2">
+      <c r="M22" t="s" s="2">
         <v>153</v>
-      </c>
-      <c r="M22" t="s" s="2">
-        <v>154</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" t="s" s="2">
@@ -3413,29 +3410,29 @@
         <v>38</v>
       </c>
       <c r="R22" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="S22" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="T22" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="U22" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="V22" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="W22" t="s" s="2">
         <v>155</v>
       </c>
-      <c r="S22" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="T22" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="U22" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="V22" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="W22" t="s" s="2">
+      <c r="X22" t="s" s="2">
         <v>156</v>
       </c>
-      <c r="X22" t="s" s="2">
+      <c r="Y22" t="s" s="2">
         <v>157</v>
       </c>
-      <c r="Y22" t="s" s="2">
-        <v>158</v>
-      </c>
       <c r="Z22" t="s" s="2">
         <v>38</v>
       </c>
@@ -3452,7 +3449,7 @@
         <v>38</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>46</v>
@@ -3467,7 +3464,7 @@
         <v>59</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="AK22" t="s" s="2">
         <v>38</v>
@@ -3475,7 +3472,7 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -3501,13 +3498,13 @@
         <v>68</v>
       </c>
       <c r="K23" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="L23" t="s" s="2">
         <v>161</v>
       </c>
-      <c r="L23" t="s" s="2">
+      <c r="M23" t="s" s="2">
         <v>162</v>
-      </c>
-      <c r="M23" t="s" s="2">
-        <v>163</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
@@ -3533,46 +3530,46 @@
         <v>38</v>
       </c>
       <c r="W23" t="s" s="2">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="X23" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="Y23" t="s" s="2">
         <v>164</v>
       </c>
-      <c r="Y23" t="s" s="2">
+      <c r="Z23" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AA23" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB23" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC23" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD23" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE23" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="AF23" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AG23" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AH23" t="s" s="2">
         <v>165</v>
-      </c>
-      <c r="Z23" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AA23" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AB23" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AC23" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AD23" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AE23" t="s" s="2">
-        <v>160</v>
-      </c>
-      <c r="AF23" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AG23" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AH23" t="s" s="2">
-        <v>166</v>
       </c>
       <c r="AI23" t="s" s="2">
         <v>59</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="AK23" t="s" s="2">
         <v>38</v>
@@ -3580,7 +3577,7 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -3603,13 +3600,13 @@
         <v>47</v>
       </c>
       <c r="J24" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="K24" t="s" s="2">
         <v>169</v>
       </c>
-      <c r="K24" t="s" s="2">
+      <c r="L24" t="s" s="2">
         <v>170</v>
-      </c>
-      <c r="L24" t="s" s="2">
-        <v>171</v>
       </c>
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
@@ -3660,7 +3657,7 @@
         <v>38</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>46</v>
@@ -3675,7 +3672,7 @@
         <v>59</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="AK24" t="s" s="2">
         <v>38</v>
@@ -3683,7 +3680,7 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -3706,13 +3703,13 @@
         <v>47</v>
       </c>
       <c r="J25" t="s" s="2">
+        <v>173</v>
+      </c>
+      <c r="K25" t="s" s="2">
         <v>174</v>
       </c>
-      <c r="K25" t="s" s="2">
+      <c r="L25" t="s" s="2">
         <v>175</v>
-      </c>
-      <c r="L25" t="s" s="2">
-        <v>176</v>
       </c>
       <c r="M25" s="2"/>
       <c r="N25" s="2"/>
@@ -3763,7 +3760,7 @@
         <v>38</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>39</v>
@@ -3778,7 +3775,7 @@
         <v>59</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="AK25" t="s" s="2">
         <v>38</v>
@@ -3786,7 +3783,7 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -3809,13 +3806,13 @@
         <v>47</v>
       </c>
       <c r="J26" t="s" s="2">
+        <v>178</v>
+      </c>
+      <c r="K26" t="s" s="2">
         <v>179</v>
       </c>
-      <c r="K26" t="s" s="2">
+      <c r="L26" t="s" s="2">
         <v>180</v>
-      </c>
-      <c r="L26" t="s" s="2">
-        <v>181</v>
       </c>
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
@@ -3866,7 +3863,7 @@
         <v>38</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>39</v>
@@ -3881,7 +3878,7 @@
         <v>59</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="AK26" t="s" s="2">
         <v>38</v>
@@ -3889,7 +3886,7 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -3912,13 +3909,13 @@
         <v>47</v>
       </c>
       <c r="J27" t="s" s="2">
+        <v>183</v>
+      </c>
+      <c r="K27" t="s" s="2">
         <v>184</v>
       </c>
-      <c r="K27" t="s" s="2">
+      <c r="L27" t="s" s="2">
         <v>185</v>
-      </c>
-      <c r="L27" t="s" s="2">
-        <v>186</v>
       </c>
       <c r="M27" s="2"/>
       <c r="N27" s="2"/>
@@ -3969,7 +3966,7 @@
         <v>38</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>39</v>
@@ -3984,7 +3981,7 @@
         <v>59</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="AK27" t="s" s="2">
         <v>38</v>
@@ -3992,7 +3989,7 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -4015,13 +4012,13 @@
         <v>47</v>
       </c>
       <c r="J28" t="s" s="2">
+        <v>188</v>
+      </c>
+      <c r="K28" t="s" s="2">
         <v>189</v>
       </c>
-      <c r="K28" t="s" s="2">
+      <c r="L28" t="s" s="2">
         <v>190</v>
-      </c>
-      <c r="L28" t="s" s="2">
-        <v>191</v>
       </c>
       <c r="M28" s="2"/>
       <c r="N28" s="2"/>
@@ -4072,7 +4069,7 @@
         <v>38</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>46</v>
@@ -4095,7 +4092,7 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -4118,16 +4115,16 @@
         <v>47</v>
       </c>
       <c r="J29" t="s" s="2">
+        <v>192</v>
+      </c>
+      <c r="K29" t="s" s="2">
         <v>193</v>
       </c>
-      <c r="K29" t="s" s="2">
+      <c r="L29" t="s" s="2">
         <v>194</v>
       </c>
-      <c r="L29" t="s" s="2">
+      <c r="M29" t="s" s="2">
         <v>195</v>
-      </c>
-      <c r="M29" t="s" s="2">
-        <v>196</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
@@ -4153,14 +4150,14 @@
         <v>38</v>
       </c>
       <c r="W29" t="s" s="2">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="X29" t="s" s="2">
+        <v>196</v>
+      </c>
+      <c r="Y29" t="s" s="2">
         <v>197</v>
       </c>
-      <c r="Y29" t="s" s="2">
-        <v>198</v>
-      </c>
       <c r="Z29" t="s" s="2">
         <v>38</v>
       </c>
@@ -4177,7 +4174,7 @@
         <v>38</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>39</v>
@@ -4200,7 +4197,7 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -4223,13 +4220,13 @@
         <v>38</v>
       </c>
       <c r="J30" t="s" s="2">
+        <v>199</v>
+      </c>
+      <c r="K30" t="s" s="2">
         <v>200</v>
       </c>
-      <c r="K30" t="s" s="2">
+      <c r="L30" t="s" s="2">
         <v>201</v>
-      </c>
-      <c r="L30" t="s" s="2">
-        <v>202</v>
       </c>
       <c r="M30" s="2"/>
       <c r="N30" s="2"/>
@@ -4280,7 +4277,7 @@
         <v>38</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>39</v>
@@ -4289,7 +4286,7 @@
         <v>40</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="AI30" t="s" s="2">
         <v>59</v>
@@ -4303,7 +4300,7 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -4329,10 +4326,10 @@
         <v>48</v>
       </c>
       <c r="K31" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="L31" t="s" s="2">
         <v>110</v>
-      </c>
-      <c r="L31" t="s" s="2">
-        <v>111</v>
       </c>
       <c r="M31" s="2"/>
       <c r="N31" s="2"/>
@@ -4383,34 +4380,34 @@
         <v>38</v>
       </c>
       <c r="AE31" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="AF31" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AG31" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AH31" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AI31" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ31" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AK31" t="s" s="2">
         <v>112</v>
-      </c>
-      <c r="AF31" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AG31" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AH31" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AI31" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AJ31" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AK31" t="s" s="2">
-        <v>113</v>
       </c>
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D32" s="2"/>
       <c r="E32" t="s" s="2">
@@ -4432,13 +4429,13 @@
         <v>92</v>
       </c>
       <c r="K32" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="L32" t="s" s="2">
         <v>205</v>
       </c>
-      <c r="L32" t="s" s="2">
-        <v>206</v>
-      </c>
       <c r="M32" t="s" s="2">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
@@ -4488,7 +4485,7 @@
         <v>38</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>39</v>
@@ -4506,16 +4503,16 @@
         <v>38</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" t="s" s="2">
@@ -4537,16 +4534,16 @@
         <v>92</v>
       </c>
       <c r="K33" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="L33" t="s" s="2">
         <v>209</v>
       </c>
-      <c r="L33" t="s" s="2">
-        <v>210</v>
-      </c>
       <c r="M33" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="N33" t="s" s="2">
         <v>141</v>
-      </c>
-      <c r="N33" t="s" s="2">
-        <v>142</v>
       </c>
       <c r="O33" t="s" s="2">
         <v>38</v>
@@ -4595,7 +4592,7 @@
         <v>38</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>39</v>
@@ -4618,7 +4615,7 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -4641,13 +4638,13 @@
         <v>47</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="K34" t="s" s="2">
+        <v>212</v>
+      </c>
+      <c r="L34" t="s" s="2">
         <v>213</v>
-      </c>
-      <c r="L34" t="s" s="2">
-        <v>214</v>
       </c>
       <c r="M34" s="2"/>
       <c r="N34" s="2"/>
@@ -4698,7 +4695,7 @@
         <v>38</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>39</v>
@@ -4721,7 +4718,7 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -4729,7 +4726,7 @@
       </c>
       <c r="D35" s="2"/>
       <c r="E35" t="s" s="2">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F35" t="s" s="2">
         <v>40</v>
@@ -4744,13 +4741,13 @@
         <v>38</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="K35" t="s" s="2">
+        <v>216</v>
+      </c>
+      <c r="L35" t="s" s="2">
         <v>217</v>
-      </c>
-      <c r="L35" t="s" s="2">
-        <v>218</v>
       </c>
       <c r="M35" s="2"/>
       <c r="N35" s="2"/>
@@ -4789,10 +4786,10 @@
         <v>38</v>
       </c>
       <c r="AA35" t="s" s="2">
+        <v>218</v>
+      </c>
+      <c r="AB35" t="s" s="2">
         <v>219</v>
-      </c>
-      <c r="AB35" t="s" s="2">
-        <v>220</v>
       </c>
       <c r="AC35" t="s" s="2">
         <v>38</v>
@@ -4801,7 +4798,7 @@
         <v>96</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>39</v>
@@ -4824,7 +4821,7 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -4850,10 +4847,10 @@
         <v>48</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="M36" s="2"/>
       <c r="N36" s="2"/>
@@ -4904,34 +4901,34 @@
         <v>38</v>
       </c>
       <c r="AE36" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="AF36" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AG36" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AH36" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AI36" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ36" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AK36" t="s" s="2">
         <v>112</v>
-      </c>
-      <c r="AF36" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AG36" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AH36" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AI36" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AJ36" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AK36" t="s" s="2">
-        <v>113</v>
       </c>
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D37" s="2"/>
       <c r="E37" t="s" s="2">
@@ -4953,13 +4950,13 @@
         <v>92</v>
       </c>
       <c r="K37" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="L37" t="s" s="2">
         <v>205</v>
       </c>
-      <c r="L37" t="s" s="2">
-        <v>206</v>
-      </c>
       <c r="M37" t="s" s="2">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
@@ -5009,7 +5006,7 @@
         <v>38</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>39</v>
@@ -5027,16 +5024,16 @@
         <v>38</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D38" s="2"/>
       <c r="E38" t="s" s="2">
@@ -5058,16 +5055,16 @@
         <v>92</v>
       </c>
       <c r="K38" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="L38" t="s" s="2">
         <v>209</v>
       </c>
-      <c r="L38" t="s" s="2">
-        <v>210</v>
-      </c>
       <c r="M38" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="N38" t="s" s="2">
         <v>141</v>
-      </c>
-      <c r="N38" t="s" s="2">
-        <v>142</v>
       </c>
       <c r="O38" t="s" s="2">
         <v>38</v>
@@ -5116,7 +5113,7 @@
         <v>38</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>39</v>
@@ -5139,7 +5136,7 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -5162,13 +5159,13 @@
         <v>47</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="M39" s="2"/>
       <c r="N39" s="2"/>
@@ -5195,11 +5192,11 @@
         <v>38</v>
       </c>
       <c r="W39" t="s" s="2">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="X39" s="2"/>
       <c r="Y39" t="s" s="2">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="Z39" t="s" s="2">
         <v>38</v>
@@ -5217,7 +5214,7 @@
         <v>38</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>39</v>
@@ -5240,7 +5237,7 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -5263,13 +5260,13 @@
         <v>38</v>
       </c>
       <c r="J40" t="s" s="2">
+        <v>229</v>
+      </c>
+      <c r="K40" t="s" s="2">
+        <v>230</v>
+      </c>
+      <c r="L40" t="s" s="2">
         <v>231</v>
-      </c>
-      <c r="K40" t="s" s="2">
-        <v>232</v>
-      </c>
-      <c r="L40" t="s" s="2">
-        <v>233</v>
       </c>
       <c r="M40" s="2"/>
       <c r="N40" s="2"/>
@@ -5320,7 +5317,7 @@
         <v>38</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>39</v>
@@ -5343,7 +5340,7 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -5366,13 +5363,13 @@
         <v>38</v>
       </c>
       <c r="J41" t="s" s="2">
+        <v>233</v>
+      </c>
+      <c r="K41" t="s" s="2">
+        <v>234</v>
+      </c>
+      <c r="L41" t="s" s="2">
         <v>235</v>
-      </c>
-      <c r="K41" t="s" s="2">
-        <v>236</v>
-      </c>
-      <c r="L41" t="s" s="2">
-        <v>237</v>
       </c>
       <c r="M41" s="2"/>
       <c r="N41" s="2"/>
@@ -5423,7 +5420,7 @@
         <v>38</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>39</v>
@@ -5446,10 +5443,10 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C42" t="s" s="2">
         <v>38</v>
@@ -5471,13 +5468,13 @@
         <v>38</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="K42" t="s" s="2">
+        <v>216</v>
+      </c>
+      <c r="L42" t="s" s="2">
         <v>217</v>
-      </c>
-      <c r="L42" t="s" s="2">
-        <v>218</v>
       </c>
       <c r="M42" s="2"/>
       <c r="N42" s="2"/>
@@ -5528,7 +5525,7 @@
         <v>38</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>39</v>
@@ -5551,7 +5548,7 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -5577,10 +5574,10 @@
         <v>48</v>
       </c>
       <c r="K43" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="L43" t="s" s="2">
         <v>110</v>
-      </c>
-      <c r="L43" t="s" s="2">
-        <v>111</v>
       </c>
       <c r="M43" s="2"/>
       <c r="N43" s="2"/>
@@ -5631,34 +5628,34 @@
         <v>38</v>
       </c>
       <c r="AE43" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="AF43" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AG43" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AH43" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AI43" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ43" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AK43" t="s" s="2">
         <v>112</v>
-      </c>
-      <c r="AF43" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AG43" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AH43" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AI43" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AJ43" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AK43" t="s" s="2">
-        <v>113</v>
       </c>
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D44" s="2"/>
       <c r="E44" t="s" s="2">
@@ -5680,13 +5677,13 @@
         <v>92</v>
       </c>
       <c r="K44" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="L44" t="s" s="2">
         <v>205</v>
       </c>
-      <c r="L44" t="s" s="2">
-        <v>206</v>
-      </c>
       <c r="M44" t="s" s="2">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" t="s" s="2">
@@ -5736,7 +5733,7 @@
         <v>38</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>39</v>
@@ -5754,16 +5751,16 @@
         <v>38</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D45" s="2"/>
       <c r="E45" t="s" s="2">
@@ -5785,16 +5782,16 @@
         <v>92</v>
       </c>
       <c r="K45" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="L45" t="s" s="2">
         <v>209</v>
       </c>
-      <c r="L45" t="s" s="2">
-        <v>210</v>
-      </c>
       <c r="M45" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="N45" t="s" s="2">
         <v>141</v>
-      </c>
-      <c r="N45" t="s" s="2">
-        <v>142</v>
       </c>
       <c r="O45" t="s" s="2">
         <v>38</v>
@@ -5843,7 +5840,7 @@
         <v>38</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>39</v>
@@ -5866,7 +5863,7 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -5889,13 +5886,13 @@
         <v>47</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>227</v>
+        <v>238</v>
       </c>
       <c r="M46" s="2"/>
       <c r="N46" s="2"/>
@@ -5907,7 +5904,7 @@
         <v>38</v>
       </c>
       <c r="R46" t="s" s="2">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="S46" t="s" s="2">
         <v>38</v>
@@ -5922,11 +5919,11 @@
         <v>38</v>
       </c>
       <c r="W46" t="s" s="2">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="X46" s="2"/>
       <c r="Y46" t="s" s="2">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="Z46" t="s" s="2">
         <v>38</v>
@@ -5944,7 +5941,7 @@
         <v>38</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>39</v>
@@ -5967,7 +5964,7 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -5990,13 +5987,13 @@
         <v>38</v>
       </c>
       <c r="J47" t="s" s="2">
+        <v>229</v>
+      </c>
+      <c r="K47" t="s" s="2">
+        <v>230</v>
+      </c>
+      <c r="L47" t="s" s="2">
         <v>231</v>
-      </c>
-      <c r="K47" t="s" s="2">
-        <v>232</v>
-      </c>
-      <c r="L47" t="s" s="2">
-        <v>233</v>
       </c>
       <c r="M47" s="2"/>
       <c r="N47" s="2"/>
@@ -6047,7 +6044,7 @@
         <v>38</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>39</v>
@@ -6070,7 +6067,7 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -6093,13 +6090,13 @@
         <v>38</v>
       </c>
       <c r="J48" t="s" s="2">
+        <v>233</v>
+      </c>
+      <c r="K48" t="s" s="2">
+        <v>234</v>
+      </c>
+      <c r="L48" t="s" s="2">
         <v>235</v>
-      </c>
-      <c r="K48" t="s" s="2">
-        <v>236</v>
-      </c>
-      <c r="L48" t="s" s="2">
-        <v>237</v>
       </c>
       <c r="M48" s="2"/>
       <c r="N48" s="2"/>
@@ -6150,7 +6147,7 @@
         <v>38</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>39</v>
@@ -6173,10 +6170,10 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C49" t="s" s="2">
         <v>38</v>
@@ -6198,13 +6195,13 @@
         <v>38</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="K49" t="s" s="2">
+        <v>216</v>
+      </c>
+      <c r="L49" t="s" s="2">
         <v>217</v>
-      </c>
-      <c r="L49" t="s" s="2">
-        <v>218</v>
       </c>
       <c r="M49" s="2"/>
       <c r="N49" s="2"/>
@@ -6255,7 +6252,7 @@
         <v>38</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>39</v>
@@ -6278,7 +6275,7 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -6304,10 +6301,10 @@
         <v>48</v>
       </c>
       <c r="K50" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="L50" t="s" s="2">
         <v>110</v>
-      </c>
-      <c r="L50" t="s" s="2">
-        <v>111</v>
       </c>
       <c r="M50" s="2"/>
       <c r="N50" s="2"/>
@@ -6358,34 +6355,34 @@
         <v>38</v>
       </c>
       <c r="AE50" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="AF50" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AG50" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AH50" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AI50" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ50" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AK50" t="s" s="2">
         <v>112</v>
-      </c>
-      <c r="AF50" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AG50" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AH50" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AI50" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AJ50" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AK50" t="s" s="2">
-        <v>113</v>
       </c>
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D51" s="2"/>
       <c r="E51" t="s" s="2">
@@ -6407,13 +6404,13 @@
         <v>92</v>
       </c>
       <c r="K51" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="L51" t="s" s="2">
         <v>205</v>
       </c>
-      <c r="L51" t="s" s="2">
-        <v>206</v>
-      </c>
       <c r="M51" t="s" s="2">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="N51" s="2"/>
       <c r="O51" t="s" s="2">
@@ -6463,7 +6460,7 @@
         <v>38</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>39</v>
@@ -6481,16 +6478,16 @@
         <v>38</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D52" s="2"/>
       <c r="E52" t="s" s="2">
@@ -6512,16 +6509,16 @@
         <v>92</v>
       </c>
       <c r="K52" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="L52" t="s" s="2">
         <v>209</v>
       </c>
-      <c r="L52" t="s" s="2">
-        <v>210</v>
-      </c>
       <c r="M52" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="N52" t="s" s="2">
         <v>141</v>
-      </c>
-      <c r="N52" t="s" s="2">
-        <v>142</v>
       </c>
       <c r="O52" t="s" s="2">
         <v>38</v>
@@ -6570,7 +6567,7 @@
         <v>38</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>39</v>
@@ -6593,7 +6590,7 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -6616,13 +6613,13 @@
         <v>47</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>227</v>
+        <v>238</v>
       </c>
       <c r="M53" s="2"/>
       <c r="N53" s="2"/>
@@ -6634,7 +6631,7 @@
         <v>38</v>
       </c>
       <c r="R53" t="s" s="2">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="S53" t="s" s="2">
         <v>38</v>
@@ -6649,11 +6646,11 @@
         <v>38</v>
       </c>
       <c r="W53" t="s" s="2">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="X53" s="2"/>
       <c r="Y53" t="s" s="2">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="Z53" t="s" s="2">
         <v>38</v>
@@ -6671,7 +6668,7 @@
         <v>38</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>39</v>
@@ -6694,7 +6691,7 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -6717,13 +6714,13 @@
         <v>38</v>
       </c>
       <c r="J54" t="s" s="2">
+        <v>229</v>
+      </c>
+      <c r="K54" t="s" s="2">
+        <v>230</v>
+      </c>
+      <c r="L54" t="s" s="2">
         <v>231</v>
-      </c>
-      <c r="K54" t="s" s="2">
-        <v>232</v>
-      </c>
-      <c r="L54" t="s" s="2">
-        <v>233</v>
       </c>
       <c r="M54" s="2"/>
       <c r="N54" s="2"/>
@@ -6774,7 +6771,7 @@
         <v>38</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>39</v>
@@ -6797,7 +6794,7 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -6820,13 +6817,13 @@
         <v>38</v>
       </c>
       <c r="J55" t="s" s="2">
+        <v>233</v>
+      </c>
+      <c r="K55" t="s" s="2">
+        <v>234</v>
+      </c>
+      <c r="L55" t="s" s="2">
         <v>235</v>
-      </c>
-      <c r="K55" t="s" s="2">
-        <v>236</v>
-      </c>
-      <c r="L55" t="s" s="2">
-        <v>237</v>
       </c>
       <c r="M55" s="2"/>
       <c r="N55" s="2"/>
@@ -6877,7 +6874,7 @@
         <v>38</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>39</v>
@@ -6900,10 +6897,10 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C56" t="s" s="2">
         <v>38</v>
@@ -6925,13 +6922,13 @@
         <v>38</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="K56" t="s" s="2">
+        <v>216</v>
+      </c>
+      <c r="L56" t="s" s="2">
         <v>217</v>
-      </c>
-      <c r="L56" t="s" s="2">
-        <v>218</v>
       </c>
       <c r="M56" s="2"/>
       <c r="N56" s="2"/>
@@ -6982,7 +6979,7 @@
         <v>38</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>39</v>
@@ -7005,7 +7002,7 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -7031,10 +7028,10 @@
         <v>48</v>
       </c>
       <c r="K57" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="L57" t="s" s="2">
         <v>110</v>
-      </c>
-      <c r="L57" t="s" s="2">
-        <v>111</v>
       </c>
       <c r="M57" s="2"/>
       <c r="N57" s="2"/>
@@ -7085,34 +7082,34 @@
         <v>38</v>
       </c>
       <c r="AE57" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="AF57" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AG57" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AH57" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AI57" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ57" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AK57" t="s" s="2">
         <v>112</v>
-      </c>
-      <c r="AF57" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AG57" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AH57" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AI57" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AJ57" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AK57" t="s" s="2">
-        <v>113</v>
       </c>
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D58" s="2"/>
       <c r="E58" t="s" s="2">
@@ -7134,13 +7131,13 @@
         <v>92</v>
       </c>
       <c r="K58" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="L58" t="s" s="2">
         <v>205</v>
       </c>
-      <c r="L58" t="s" s="2">
-        <v>206</v>
-      </c>
       <c r="M58" t="s" s="2">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="N58" s="2"/>
       <c r="O58" t="s" s="2">
@@ -7190,7 +7187,7 @@
         <v>38</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>39</v>
@@ -7208,16 +7205,16 @@
         <v>38</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D59" s="2"/>
       <c r="E59" t="s" s="2">
@@ -7239,16 +7236,16 @@
         <v>92</v>
       </c>
       <c r="K59" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="L59" t="s" s="2">
         <v>209</v>
       </c>
-      <c r="L59" t="s" s="2">
-        <v>210</v>
-      </c>
       <c r="M59" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="N59" t="s" s="2">
         <v>141</v>
-      </c>
-      <c r="N59" t="s" s="2">
-        <v>142</v>
       </c>
       <c r="O59" t="s" s="2">
         <v>38</v>
@@ -7297,7 +7294,7 @@
         <v>38</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>39</v>
@@ -7320,7 +7317,7 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -7343,13 +7340,13 @@
         <v>47</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>227</v>
+        <v>238</v>
       </c>
       <c r="M60" s="2"/>
       <c r="N60" s="2"/>
@@ -7361,7 +7358,7 @@
         <v>38</v>
       </c>
       <c r="R60" t="s" s="2">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="S60" t="s" s="2">
         <v>38</v>
@@ -7376,11 +7373,11 @@
         <v>38</v>
       </c>
       <c r="W60" t="s" s="2">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="X60" s="2"/>
       <c r="Y60" t="s" s="2">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="Z60" t="s" s="2">
         <v>38</v>
@@ -7398,7 +7395,7 @@
         <v>38</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>39</v>
@@ -7421,7 +7418,7 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -7444,13 +7441,13 @@
         <v>38</v>
       </c>
       <c r="J61" t="s" s="2">
+        <v>229</v>
+      </c>
+      <c r="K61" t="s" s="2">
+        <v>230</v>
+      </c>
+      <c r="L61" t="s" s="2">
         <v>231</v>
-      </c>
-      <c r="K61" t="s" s="2">
-        <v>232</v>
-      </c>
-      <c r="L61" t="s" s="2">
-        <v>233</v>
       </c>
       <c r="M61" s="2"/>
       <c r="N61" s="2"/>
@@ -7501,7 +7498,7 @@
         <v>38</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>39</v>
@@ -7524,7 +7521,7 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -7547,13 +7544,13 @@
         <v>38</v>
       </c>
       <c r="J62" t="s" s="2">
+        <v>233</v>
+      </c>
+      <c r="K62" t="s" s="2">
+        <v>234</v>
+      </c>
+      <c r="L62" t="s" s="2">
         <v>235</v>
-      </c>
-      <c r="K62" t="s" s="2">
-        <v>236</v>
-      </c>
-      <c r="L62" t="s" s="2">
-        <v>237</v>
       </c>
       <c r="M62" s="2"/>
       <c r="N62" s="2"/>
@@ -7604,7 +7601,7 @@
         <v>38</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>39</v>
@@ -7627,7 +7624,7 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -7650,13 +7647,13 @@
         <v>47</v>
       </c>
       <c r="J63" t="s" s="2">
+        <v>246</v>
+      </c>
+      <c r="K63" t="s" s="2">
         <v>247</v>
       </c>
-      <c r="K63" t="s" s="2">
+      <c r="L63" t="s" s="2">
         <v>248</v>
-      </c>
-      <c r="L63" t="s" s="2">
-        <v>249</v>
       </c>
       <c r="M63" s="2"/>
       <c r="N63" s="2"/>
@@ -7707,7 +7704,7 @@
         <v>38</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>39</v>
@@ -7730,7 +7727,7 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -7753,13 +7750,13 @@
         <v>38</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="K64" t="s" s="2">
+        <v>250</v>
+      </c>
+      <c r="L64" t="s" s="2">
         <v>251</v>
-      </c>
-      <c r="L64" t="s" s="2">
-        <v>252</v>
       </c>
       <c r="M64" s="2"/>
       <c r="N64" s="2"/>
@@ -7810,7 +7807,7 @@
         <v>38</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>39</v>
@@ -7833,7 +7830,7 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
@@ -7859,10 +7856,10 @@
         <v>48</v>
       </c>
       <c r="K65" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="L65" t="s" s="2">
         <v>110</v>
-      </c>
-      <c r="L65" t="s" s="2">
-        <v>111</v>
       </c>
       <c r="M65" s="2"/>
       <c r="N65" s="2"/>
@@ -7913,34 +7910,34 @@
         <v>38</v>
       </c>
       <c r="AE65" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="AF65" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AG65" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AH65" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AI65" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ65" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AK65" t="s" s="2">
         <v>112</v>
-      </c>
-      <c r="AF65" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AG65" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AH65" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AI65" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AJ65" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AK65" t="s" s="2">
-        <v>113</v>
       </c>
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D66" s="2"/>
       <c r="E66" t="s" s="2">
@@ -7962,13 +7959,13 @@
         <v>92</v>
       </c>
       <c r="K66" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="L66" t="s" s="2">
         <v>205</v>
       </c>
-      <c r="L66" t="s" s="2">
-        <v>206</v>
-      </c>
       <c r="M66" t="s" s="2">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="N66" s="2"/>
       <c r="O66" t="s" s="2">
@@ -8018,7 +8015,7 @@
         <v>38</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>39</v>
@@ -8036,16 +8033,16 @@
         <v>38</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D67" s="2"/>
       <c r="E67" t="s" s="2">
@@ -8067,16 +8064,16 @@
         <v>92</v>
       </c>
       <c r="K67" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="L67" t="s" s="2">
         <v>209</v>
       </c>
-      <c r="L67" t="s" s="2">
-        <v>210</v>
-      </c>
       <c r="M67" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="N67" t="s" s="2">
         <v>141</v>
-      </c>
-      <c r="N67" t="s" s="2">
-        <v>142</v>
       </c>
       <c r="O67" t="s" s="2">
         <v>38</v>
@@ -8125,7 +8122,7 @@
         <v>38</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>39</v>
@@ -8148,7 +8145,7 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
@@ -8171,13 +8168,13 @@
         <v>38</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="K68" t="s" s="2">
+        <v>256</v>
+      </c>
+      <c r="L68" t="s" s="2">
         <v>257</v>
-      </c>
-      <c r="L68" t="s" s="2">
-        <v>258</v>
       </c>
       <c r="M68" s="2"/>
       <c r="N68" s="2"/>
@@ -8228,7 +8225,7 @@
         <v>38</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>39</v>
@@ -8251,7 +8248,7 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
@@ -8274,13 +8271,13 @@
         <v>38</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="K69" t="s" s="2">
+        <v>259</v>
+      </c>
+      <c r="L69" t="s" s="2">
         <v>260</v>
-      </c>
-      <c r="L69" t="s" s="2">
-        <v>261</v>
       </c>
       <c r="M69" s="2"/>
       <c r="N69" s="2"/>
@@ -8331,7 +8328,7 @@
         <v>38</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>39</v>
@@ -8354,7 +8351,7 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
@@ -8380,10 +8377,10 @@
         <v>48</v>
       </c>
       <c r="K70" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="L70" t="s" s="2">
         <v>110</v>
-      </c>
-      <c r="L70" t="s" s="2">
-        <v>111</v>
       </c>
       <c r="M70" s="2"/>
       <c r="N70" s="2"/>
@@ -8434,34 +8431,34 @@
         <v>38</v>
       </c>
       <c r="AE70" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="AF70" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AG70" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AH70" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AI70" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ70" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AK70" t="s" s="2">
         <v>112</v>
-      </c>
-      <c r="AF70" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AG70" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AH70" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AI70" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AJ70" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AK70" t="s" s="2">
-        <v>113</v>
       </c>
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D71" s="2"/>
       <c r="E71" t="s" s="2">
@@ -8483,13 +8480,13 @@
         <v>92</v>
       </c>
       <c r="K71" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="L71" t="s" s="2">
         <v>205</v>
       </c>
-      <c r="L71" t="s" s="2">
-        <v>206</v>
-      </c>
       <c r="M71" t="s" s="2">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="N71" s="2"/>
       <c r="O71" t="s" s="2">
@@ -8539,7 +8536,7 @@
         <v>38</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>39</v>
@@ -8557,16 +8554,16 @@
         <v>38</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D72" s="2"/>
       <c r="E72" t="s" s="2">
@@ -8588,16 +8585,16 @@
         <v>92</v>
       </c>
       <c r="K72" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="L72" t="s" s="2">
         <v>209</v>
       </c>
-      <c r="L72" t="s" s="2">
-        <v>210</v>
-      </c>
       <c r="M72" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="N72" t="s" s="2">
         <v>141</v>
-      </c>
-      <c r="N72" t="s" s="2">
-        <v>142</v>
       </c>
       <c r="O72" t="s" s="2">
         <v>38</v>
@@ -8646,7 +8643,7 @@
         <v>38</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="AF72" t="s" s="2">
         <v>39</v>
@@ -8669,7 +8666,7 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
@@ -8692,13 +8689,13 @@
         <v>38</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="K73" t="s" s="2">
+        <v>265</v>
+      </c>
+      <c r="L73" t="s" s="2">
         <v>266</v>
-      </c>
-      <c r="L73" t="s" s="2">
-        <v>267</v>
       </c>
       <c r="M73" s="2"/>
       <c r="N73" s="2"/>
@@ -8749,7 +8746,7 @@
         <v>38</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="AF73" t="s" s="2">
         <v>39</v>
@@ -8772,7 +8769,7 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
@@ -8795,13 +8792,13 @@
         <v>38</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="K74" t="s" s="2">
+        <v>268</v>
+      </c>
+      <c r="L74" t="s" s="2">
         <v>269</v>
-      </c>
-      <c r="L74" t="s" s="2">
-        <v>270</v>
       </c>
       <c r="M74" s="2"/>
       <c r="N74" s="2"/>
@@ -8852,7 +8849,7 @@
         <v>38</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="AF74" t="s" s="2">
         <v>39</v>
@@ -8875,7 +8872,7 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
@@ -8901,10 +8898,10 @@
         <v>48</v>
       </c>
       <c r="K75" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="L75" t="s" s="2">
         <v>110</v>
-      </c>
-      <c r="L75" t="s" s="2">
-        <v>111</v>
       </c>
       <c r="M75" s="2"/>
       <c r="N75" s="2"/>
@@ -8955,34 +8952,34 @@
         <v>38</v>
       </c>
       <c r="AE75" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="AF75" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AG75" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AH75" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AI75" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ75" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AK75" t="s" s="2">
         <v>112</v>
-      </c>
-      <c r="AF75" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AG75" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AH75" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AI75" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AJ75" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AK75" t="s" s="2">
-        <v>113</v>
       </c>
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D76" s="2"/>
       <c r="E76" t="s" s="2">
@@ -9004,13 +9001,13 @@
         <v>92</v>
       </c>
       <c r="K76" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="L76" t="s" s="2">
         <v>205</v>
       </c>
-      <c r="L76" t="s" s="2">
-        <v>206</v>
-      </c>
       <c r="M76" t="s" s="2">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="N76" s="2"/>
       <c r="O76" t="s" s="2">
@@ -9060,7 +9057,7 @@
         <v>38</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="AF76" t="s" s="2">
         <v>39</v>
@@ -9078,16 +9075,16 @@
         <v>38</v>
       </c>
       <c r="AK76" t="s" s="2">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D77" s="2"/>
       <c r="E77" t="s" s="2">
@@ -9109,16 +9106,16 @@
         <v>92</v>
       </c>
       <c r="K77" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="L77" t="s" s="2">
         <v>209</v>
       </c>
-      <c r="L77" t="s" s="2">
-        <v>210</v>
-      </c>
       <c r="M77" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="N77" t="s" s="2">
         <v>141</v>
-      </c>
-      <c r="N77" t="s" s="2">
-        <v>142</v>
       </c>
       <c r="O77" t="s" s="2">
         <v>38</v>
@@ -9167,7 +9164,7 @@
         <v>38</v>
       </c>
       <c r="AE77" t="s" s="2">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="AF77" t="s" s="2">
         <v>39</v>
@@ -9190,7 +9187,7 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" t="s" s="2">
@@ -9213,13 +9210,13 @@
         <v>38</v>
       </c>
       <c r="J78" t="s" s="2">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="K78" t="s" s="2">
+        <v>274</v>
+      </c>
+      <c r="L78" t="s" s="2">
         <v>275</v>
-      </c>
-      <c r="L78" t="s" s="2">
-        <v>276</v>
       </c>
       <c r="M78" s="2"/>
       <c r="N78" s="2"/>
@@ -9270,7 +9267,7 @@
         <v>38</v>
       </c>
       <c r="AE78" t="s" s="2">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="AF78" t="s" s="2">
         <v>46</v>
@@ -9293,7 +9290,7 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" t="s" s="2">
@@ -9316,13 +9313,13 @@
         <v>38</v>
       </c>
       <c r="J79" t="s" s="2">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="K79" t="s" s="2">
+        <v>277</v>
+      </c>
+      <c r="L79" t="s" s="2">
         <v>278</v>
-      </c>
-      <c r="L79" t="s" s="2">
-        <v>279</v>
       </c>
       <c r="M79" s="2"/>
       <c r="N79" s="2"/>
@@ -9373,7 +9370,7 @@
         <v>38</v>
       </c>
       <c r="AE79" t="s" s="2">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="AF79" t="s" s="2">
         <v>46</v>
@@ -9396,7 +9393,7 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" t="s" s="2">
@@ -9419,13 +9416,13 @@
         <v>38</v>
       </c>
       <c r="J80" t="s" s="2">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="K80" t="s" s="2">
+        <v>280</v>
+      </c>
+      <c r="L80" t="s" s="2">
         <v>281</v>
-      </c>
-      <c r="L80" t="s" s="2">
-        <v>282</v>
       </c>
       <c r="M80" s="2"/>
       <c r="N80" s="2"/>
@@ -9476,7 +9473,7 @@
         <v>38</v>
       </c>
       <c r="AE80" t="s" s="2">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="AF80" t="s" s="2">
         <v>39</v>
@@ -9499,7 +9496,7 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B81" s="2"/>
       <c r="C81" t="s" s="2">
@@ -9525,10 +9522,10 @@
         <v>48</v>
       </c>
       <c r="K81" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="L81" t="s" s="2">
         <v>110</v>
-      </c>
-      <c r="L81" t="s" s="2">
-        <v>111</v>
       </c>
       <c r="M81" s="2"/>
       <c r="N81" s="2"/>
@@ -9579,34 +9576,34 @@
         <v>38</v>
       </c>
       <c r="AE81" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="AF81" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AG81" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AH81" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AI81" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ81" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AK81" t="s" s="2">
         <v>112</v>
-      </c>
-      <c r="AF81" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AG81" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AH81" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AI81" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AJ81" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AK81" t="s" s="2">
-        <v>113</v>
       </c>
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B82" s="2"/>
       <c r="C82" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D82" s="2"/>
       <c r="E82" t="s" s="2">
@@ -9628,13 +9625,13 @@
         <v>92</v>
       </c>
       <c r="K82" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="L82" t="s" s="2">
         <v>205</v>
       </c>
-      <c r="L82" t="s" s="2">
-        <v>206</v>
-      </c>
       <c r="M82" t="s" s="2">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="N82" s="2"/>
       <c r="O82" t="s" s="2">
@@ -9684,7 +9681,7 @@
         <v>38</v>
       </c>
       <c r="AE82" t="s" s="2">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="AF82" t="s" s="2">
         <v>39</v>
@@ -9702,16 +9699,16 @@
         <v>38</v>
       </c>
       <c r="AK82" t="s" s="2">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B83" s="2"/>
       <c r="C83" t="s" s="2">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D83" s="2"/>
       <c r="E83" t="s" s="2">
@@ -9733,16 +9730,16 @@
         <v>92</v>
       </c>
       <c r="K83" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="L83" t="s" s="2">
         <v>209</v>
       </c>
-      <c r="L83" t="s" s="2">
-        <v>210</v>
-      </c>
       <c r="M83" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="N83" t="s" s="2">
         <v>141</v>
-      </c>
-      <c r="N83" t="s" s="2">
-        <v>142</v>
       </c>
       <c r="O83" t="s" s="2">
         <v>38</v>
@@ -9791,7 +9788,7 @@
         <v>38</v>
       </c>
       <c r="AE83" t="s" s="2">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="AF83" t="s" s="2">
         <v>39</v>
@@ -9814,7 +9811,7 @@
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B84" s="2"/>
       <c r="C84" t="s" s="2">
@@ -9837,13 +9834,13 @@
         <v>38</v>
       </c>
       <c r="J84" t="s" s="2">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>227</v>
+        <v>238</v>
       </c>
       <c r="M84" s="2"/>
       <c r="N84" s="2"/>
@@ -9870,14 +9867,14 @@
         <v>38</v>
       </c>
       <c r="W84" t="s" s="2">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="X84" t="s" s="2">
+        <v>286</v>
+      </c>
+      <c r="Y84" t="s" s="2">
         <v>287</v>
       </c>
-      <c r="Y84" t="s" s="2">
-        <v>288</v>
-      </c>
       <c r="Z84" t="s" s="2">
         <v>38</v>
       </c>
@@ -9894,7 +9891,7 @@
         <v>38</v>
       </c>
       <c r="AE84" t="s" s="2">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="AF84" t="s" s="2">
         <v>39</v>
@@ -9917,7 +9914,7 @@
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B85" s="2"/>
       <c r="C85" t="s" s="2">
@@ -9940,13 +9937,13 @@
         <v>38</v>
       </c>
       <c r="J85" t="s" s="2">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="M85" s="2"/>
       <c r="N85" s="2"/>
@@ -9997,7 +9994,7 @@
         <v>38</v>
       </c>
       <c r="AE85" t="s" s="2">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="AF85" t="s" s="2">
         <v>39</v>
@@ -10020,7 +10017,7 @@
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B86" s="2"/>
       <c r="C86" t="s" s="2">
@@ -10043,13 +10040,13 @@
         <v>38</v>
       </c>
       <c r="J86" t="s" s="2">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="M86" s="2"/>
       <c r="N86" s="2"/>
@@ -10100,7 +10097,7 @@
         <v>38</v>
       </c>
       <c r="AE86" t="s" s="2">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="AF86" t="s" s="2">
         <v>39</v>
@@ -10123,7 +10120,7 @@
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B87" s="2"/>
       <c r="C87" t="s" s="2">
@@ -10146,13 +10143,13 @@
         <v>38</v>
       </c>
       <c r="J87" t="s" s="2">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="K87" t="s" s="2">
+        <v>293</v>
+      </c>
+      <c r="L87" t="s" s="2">
         <v>294</v>
-      </c>
-      <c r="L87" t="s" s="2">
-        <v>295</v>
       </c>
       <c r="M87" s="2"/>
       <c r="N87" s="2"/>
@@ -10203,7 +10200,7 @@
         <v>38</v>
       </c>
       <c r="AE87" t="s" s="2">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="AF87" t="s" s="2">
         <v>39</v>
@@ -10226,7 +10223,7 @@
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B88" s="2"/>
       <c r="C88" t="s" s="2">
@@ -10249,13 +10246,13 @@
         <v>38</v>
       </c>
       <c r="J88" t="s" s="2">
+        <v>296</v>
+      </c>
+      <c r="K88" t="s" s="2">
         <v>297</v>
       </c>
-      <c r="K88" t="s" s="2">
+      <c r="L88" t="s" s="2">
         <v>298</v>
-      </c>
-      <c r="L88" t="s" s="2">
-        <v>299</v>
       </c>
       <c r="M88" s="2"/>
       <c r="N88" s="2"/>
@@ -10306,7 +10303,7 @@
         <v>38</v>
       </c>
       <c r="AE88" t="s" s="2">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="AF88" t="s" s="2">
         <v>39</v>

--- a/StructureDefinition-quality-measure-report-patient.xlsx
+++ b/StructureDefinition-quality-measure-report-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-20T17:48:04+00:00</t>
+    <t>2021-09-21T12:28:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-quality-measure-report-patient.xlsx
+++ b/StructureDefinition-quality-measure-report-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-21T12:28:41+00:00</t>
+    <t>2021-09-28T19:40:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-quality-measure-report-patient.xlsx
+++ b/StructureDefinition-quality-measure-report-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-28T19:40:31+00:00</t>
+    <t>2021-10-01T15:07:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-quality-measure-report-patient.xlsx
+++ b/StructureDefinition-quality-measure-report-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-11-19T14:45:01+00:00</t>
+    <t>2021-12-16T17:36:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-quality-measure-report-patient.xlsx
+++ b/StructureDefinition-quality-measure-report-patient.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>6.0.0</t>
+    <t>6.1.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-21T20:46:54+00:00</t>
+    <t>2022-05-31T20:10:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-quality-measure-report-patient.xlsx
+++ b/StructureDefinition-quality-measure-report-patient.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>6.1.0</t>
+    <t>6.1.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-31T20:10:14+00:00</t>
+    <t>2022-06-06T15:56:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-quality-measure-report-patient.xlsx
+++ b/StructureDefinition-quality-measure-report-patient.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>6.1.1</t>
+    <t>7.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-06T15:56:40+00:00</t>
+    <t>2022-09-01T20:48:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1380,42 +1380,42 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="65.3359375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="34.98046875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="34.984375" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="6.7734375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="6.77734375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.9453125" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="16.2734375" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="13.2578125" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="14.44140625" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="16.27734375" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.26171875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="14.4453125" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="179.47265625" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="179.4765625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="15.265625" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="15.26953125" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="17.16796875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="17.171875" customWidth="true" bestFit="true"/>
     <col min="21" max="21" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="19.03125" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="18.85546875" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="139.4375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="62.4453125" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="19.03515625" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="18.859375" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="139.44140625" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="62.44921875" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="22.71484375" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="42.984375" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="17.2109375" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="22.71875" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="42.98828125" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="17.21484375" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="14.4140625" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="61.44921875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="10.55078125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="11.03515625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="13.87109375" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="61.453125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="11.0390625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="13.875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
     <col min="36" max="36" width="36.91796875" customWidth="true" bestFit="true"/>
-    <col min="37" max="37" width="24.9765625" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="24.98046875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/StructureDefinition-quality-measure-report-patient.xlsx
+++ b/StructureDefinition-quality-measure-report-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-01T20:48:10+00:00</t>
+    <t>2022-09-01T21:20:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-quality-measure-report-patient.xlsx
+++ b/StructureDefinition-quality-measure-report-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-01T21:20:10+00:00</t>
+    <t>2022-09-01T21:41:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-quality-measure-report-patient.xlsx
+++ b/StructureDefinition-quality-measure-report-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-01T21:41:49+00:00</t>
+    <t>2022-09-01T22:10:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-quality-measure-report-patient.xlsx
+++ b/StructureDefinition-quality-measure-report-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-01T22:10:22+00:00</t>
+    <t>2022-09-06T15:46:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-quality-measure-report-patient.xlsx
+++ b/StructureDefinition-quality-measure-report-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-06T15:46:40+00:00</t>
+    <t>2022-09-06T17:14:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-quality-measure-report-patient.xlsx
+++ b/StructureDefinition-quality-measure-report-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-06T17:14:02+00:00</t>
+    <t>2022-09-06T21:02:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-quality-measure-report-patient.xlsx
+++ b/StructureDefinition-quality-measure-report-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-06T21:02:26+00:00</t>
+    <t>2022-09-06T21:25:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-quality-measure-report-patient.xlsx
+++ b/StructureDefinition-quality-measure-report-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-06T21:25:20+00:00</t>
+    <t>2022-09-07T15:39:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-quality-measure-report-patient.xlsx
+++ b/StructureDefinition-quality-measure-report-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-07T15:39:45+00:00</t>
+    <t>2022-09-07T17:21:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-quality-measure-report-patient.xlsx
+++ b/StructureDefinition-quality-measure-report-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-07T17:21:01+00:00</t>
+    <t>2022-09-07T17:59:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-quality-measure-report-patient.xlsx
+++ b/StructureDefinition-quality-measure-report-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-07T17:59:32+00:00</t>
+    <t>2022-09-07T18:17:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-quality-measure-report-patient.xlsx
+++ b/StructureDefinition-quality-measure-report-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-07T18:17:14+00:00</t>
+    <t>2022-09-07T18:58:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-quality-measure-report-patient.xlsx
+++ b/StructureDefinition-quality-measure-report-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-07T18:58:38+00:00</t>
+    <t>2022-09-07T20:17:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-quality-measure-report-patient.xlsx
+++ b/StructureDefinition-quality-measure-report-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-07T20:17:32+00:00</t>
+    <t>2022-09-07T20:41:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-quality-measure-report-patient.xlsx
+++ b/StructureDefinition-quality-measure-report-patient.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3131" uniqueCount="334">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3131" uniqueCount="335">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-07T20:41:11+00:00</t>
+    <t>2022-09-08T16:11:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -262,203 +262,207 @@
     <t>Y</t>
   </si>
   <si>
+    <t xml:space="preserve">id
+</t>
+  </si>
+  <si>
+    <t>Logical id of this artifact</t>
+  </si>
+  <si>
+    <t>The logical id of the resource, as used in the URL for the resource. Once assigned, this value never changes.</t>
+  </si>
+  <si>
+    <t>The only time that a resource does not have an id is when it is being submitted to the server using a create operation.</t>
+  </si>
+  <si>
+    <t>Resource.id</t>
+  </si>
+  <si>
+    <t>MeasureReport.meta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Meta {http://ibm.com/fhir/cdm/StructureDefinition/process-meta}
+</t>
+  </si>
+  <si>
+    <t>Metadata about a resource</t>
+  </si>
+  <si>
+    <t>The metadata about a resource. This is content in the resource that is maintained by the infrastructure. Changes to the content might not always be associated with version changes to the resource.</t>
+  </si>
+  <si>
+    <t>Resource.meta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ele-1
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>MeasureReport.implicitRules</t>
+  </si>
+  <si>
+    <t xml:space="preserve">uri
+</t>
+  </si>
+  <si>
+    <t>A set of rules under which this content was created</t>
+  </si>
+  <si>
+    <t>A reference to a set of rules that were followed when the resource was constructed, and which must be understood when processing the content. Often, this is a reference to an implementation guide that defines the special rules along with other profiles etc.</t>
+  </si>
+  <si>
+    <t>Asserting this rule set restricts the content to be only understood by a limited set of trading partners. This inherently limits the usefulness of the data in the long term. However, the existing health eco-system is highly fractured, and not yet ready to define, collect, and exchange data in a generally computable sense. Wherever possible, implementers and/or specification writers should avoid using this element. Often, when used, the URL is a reference to an implementation guide that defines these special rules as part of it's narrative along with other profiles, value sets, etc.</t>
+  </si>
+  <si>
+    <t>Resource.implicitRules</t>
+  </si>
+  <si>
+    <t>MeasureReport.language</t>
+  </si>
+  <si>
+    <t xml:space="preserve">code
+</t>
+  </si>
+  <si>
+    <t>Language of the resource content</t>
+  </si>
+  <si>
+    <t>The base language in which the resource is written.</t>
+  </si>
+  <si>
+    <t>Language is provided to support indexing and accessibility (typically, services such as text to speech use the language tag). The html language tag in the narrative applies  to the narrative. The language tag on the resource may be used to specify the language of other presentations generated from the data in the resource. Not all the content has to be in the base language. The Resource.language should not be assumed to apply to the narrative automatically. If a language is specified, it should it also be specified on the div element in the html (see rules in HTML5 for information about the relationship between xml:lang and the html lang attribute).</t>
+  </si>
+  <si>
+    <t>preferred</t>
+  </si>
+  <si>
+    <t>A human language.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/languages</t>
+  </si>
+  <si>
+    <t>Resource.language</t>
+  </si>
+  <si>
+    <t>MeasureReport.text</t>
+  </si>
+  <si>
+    <t>narrative
+htmlxhtmldisplay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Narrative
+</t>
+  </si>
+  <si>
+    <t>Text summary of the resource, for human interpretation</t>
+  </si>
+  <si>
+    <t>A human-readable narrative that contains a summary of the resource and can be used to represent the content of the resource to a human. The narrative need not encode all the structured data, but is required to contain sufficient detail to make it "clinically safe" for a human to just read the narrative. Resource definitions may define what content should be represented in the narrative to ensure clinical safety.</t>
+  </si>
+  <si>
+    <t>Contained resources do not have narrative. Resources that are not contained SHOULD have a narrative. In some cases, a resource may only have text with little or no additional discrete data (as long as all minOccurs=1 elements are satisfied).  This may be necessary for data from legacy systems where information is captured as a "text blob" or where text is additionally entered raw or narrated and encoded information is added later.</t>
+  </si>
+  <si>
+    <t>DomainResource.text</t>
+  </si>
+  <si>
+    <t>Act.text?</t>
+  </si>
+  <si>
+    <t>MeasureReport.contained</t>
+  </si>
+  <si>
+    <t>inline resources
+anonymous resourcescontained resources</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Resource
+</t>
+  </si>
+  <si>
+    <t>Contained, inline Resources</t>
+  </si>
+  <si>
+    <t>These resources do not have an independent existence apart from the resource that contains them - they cannot be identified independently, and nor can they have their own independent transaction scope.</t>
+  </si>
+  <si>
+    <t>This should never be done when the content can be identified properly, as once identification is lost, it is extremely difficult (and context dependent) to restore it again. Contained resources may have profiles and tags In their meta elements, but SHALL NOT have security labels.</t>
+  </si>
+  <si>
+    <t>DomainResource.contained</t>
+  </si>
+  <si>
+    <t>MeasureReport.extension</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension
+</t>
+  </si>
+  <si>
+    <t>Extension</t>
+  </si>
+  <si>
+    <t>An Extension</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:url}
+</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>DomainResource.extension</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
+  </si>
+  <si>
+    <t>measureParameterValue</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://ibm.com/fhir/cdm/StructureDefinition/measure-parameter-value}
+</t>
+  </si>
+  <si>
+    <t>Measure parameter value used to generate the measure report</t>
+  </si>
+  <si>
+    <t>measureReportAssignedPractitioner</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://ibm.com/fhir/cdm/StructureDefinition/measure-report-assigned-practitioner}
+</t>
+  </si>
+  <si>
+    <t>The provider identifier of the physician(s) assigned to the rule measure using one of the physician attribution methods</t>
+  </si>
+  <si>
+    <t>measureReportEvidence</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://ibm.com/fhir/cdm/StructureDefinition/measure-report-evidence}
+</t>
+  </si>
+  <si>
+    <t>Supporting evidence showing detailed data about why a patient qualified (or did not qualify) for measure rules</t>
+  </si>
+  <si>
+    <t>MeasureReport.extension.id</t>
+  </si>
+  <si>
     <t xml:space="preserve">string
 </t>
-  </si>
-  <si>
-    <t>Logical id of this artifact</t>
-  </si>
-  <si>
-    <t>The logical id of the resource, as used in the URL for the resource. Once assigned, this value never changes.</t>
-  </si>
-  <si>
-    <t>The only time that a resource does not have an id is when it is being submitted to the server using a create operation.</t>
-  </si>
-  <si>
-    <t>Resource.id</t>
-  </si>
-  <si>
-    <t>MeasureReport.meta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Meta {http://ibm.com/fhir/cdm/StructureDefinition/process-meta}
-</t>
-  </si>
-  <si>
-    <t>Metadata about a resource</t>
-  </si>
-  <si>
-    <t>The metadata about a resource. This is content in the resource that is maintained by the infrastructure. Changes to the content might not always be associated with version changes to the resource.</t>
-  </si>
-  <si>
-    <t>Resource.meta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ele-1
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-</t>
-  </si>
-  <si>
-    <t>N/A</t>
-  </si>
-  <si>
-    <t>MeasureReport.implicitRules</t>
-  </si>
-  <si>
-    <t xml:space="preserve">uri
-</t>
-  </si>
-  <si>
-    <t>A set of rules under which this content was created</t>
-  </si>
-  <si>
-    <t>A reference to a set of rules that were followed when the resource was constructed, and which must be understood when processing the content. Often, this is a reference to an implementation guide that defines the special rules along with other profiles etc.</t>
-  </si>
-  <si>
-    <t>Asserting this rule set restricts the content to be only understood by a limited set of trading partners. This inherently limits the usefulness of the data in the long term. However, the existing health eco-system is highly fractured, and not yet ready to define, collect, and exchange data in a generally computable sense. Wherever possible, implementers and/or specification writers should avoid using this element. Often, when used, the URL is a reference to an implementation guide that defines these special rules as part of it's narrative along with other profiles, value sets, etc.</t>
-  </si>
-  <si>
-    <t>Resource.implicitRules</t>
-  </si>
-  <si>
-    <t>MeasureReport.language</t>
-  </si>
-  <si>
-    <t xml:space="preserve">code
-</t>
-  </si>
-  <si>
-    <t>Language of the resource content</t>
-  </si>
-  <si>
-    <t>The base language in which the resource is written.</t>
-  </si>
-  <si>
-    <t>Language is provided to support indexing and accessibility (typically, services such as text to speech use the language tag). The html language tag in the narrative applies  to the narrative. The language tag on the resource may be used to specify the language of other presentations generated from the data in the resource. Not all the content has to be in the base language. The Resource.language should not be assumed to apply to the narrative automatically. If a language is specified, it should it also be specified on the div element in the html (see rules in HTML5 for information about the relationship between xml:lang and the html lang attribute).</t>
-  </si>
-  <si>
-    <t>preferred</t>
-  </si>
-  <si>
-    <t>A human language.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/languages</t>
-  </si>
-  <si>
-    <t>Resource.language</t>
-  </si>
-  <si>
-    <t>MeasureReport.text</t>
-  </si>
-  <si>
-    <t>narrative
-htmlxhtmldisplay</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Narrative
-</t>
-  </si>
-  <si>
-    <t>Text summary of the resource, for human interpretation</t>
-  </si>
-  <si>
-    <t>A human-readable narrative that contains a summary of the resource and can be used to represent the content of the resource to a human. The narrative need not encode all the structured data, but is required to contain sufficient detail to make it "clinically safe" for a human to just read the narrative. Resource definitions may define what content should be represented in the narrative to ensure clinical safety.</t>
-  </si>
-  <si>
-    <t>Contained resources do not have narrative. Resources that are not contained SHOULD have a narrative. In some cases, a resource may only have text with little or no additional discrete data (as long as all minOccurs=1 elements are satisfied).  This may be necessary for data from legacy systems where information is captured as a "text blob" or where text is additionally entered raw or narrated and encoded information is added later.</t>
-  </si>
-  <si>
-    <t>DomainResource.text</t>
-  </si>
-  <si>
-    <t>Act.text?</t>
-  </si>
-  <si>
-    <t>MeasureReport.contained</t>
-  </si>
-  <si>
-    <t>inline resources
-anonymous resourcescontained resources</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Resource
-</t>
-  </si>
-  <si>
-    <t>Contained, inline Resources</t>
-  </si>
-  <si>
-    <t>These resources do not have an independent existence apart from the resource that contains them - they cannot be identified independently, and nor can they have their own independent transaction scope.</t>
-  </si>
-  <si>
-    <t>This should never be done when the content can be identified properly, as once identification is lost, it is extremely difficult (and context dependent) to restore it again. Contained resources may have profiles and tags In their meta elements, but SHALL NOT have security labels.</t>
-  </si>
-  <si>
-    <t>DomainResource.contained</t>
-  </si>
-  <si>
-    <t>MeasureReport.extension</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension
-</t>
-  </si>
-  <si>
-    <t>Extension</t>
-  </si>
-  <si>
-    <t>An Extension</t>
-  </si>
-  <si>
-    <t xml:space="preserve">value:url}
-</t>
-  </si>
-  <si>
-    <t>open</t>
-  </si>
-  <si>
-    <t>DomainResource.extension</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
-  </si>
-  <si>
-    <t>measureParameterValue</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://ibm.com/fhir/cdm/StructureDefinition/measure-parameter-value}
-</t>
-  </si>
-  <si>
-    <t>Measure parameter value used to generate the measure report</t>
-  </si>
-  <si>
-    <t>measureReportAssignedPractitioner</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://ibm.com/fhir/cdm/StructureDefinition/measure-report-assigned-practitioner}
-</t>
-  </si>
-  <si>
-    <t>The provider identifier of the physician(s) assigned to the rule measure using one of the physician attribution methods</t>
-  </si>
-  <si>
-    <t>measureReportEvidence</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://ibm.com/fhir/cdm/StructureDefinition/measure-report-evidence}
-</t>
-  </si>
-  <si>
-    <t>Supporting evidence showing detailed data about why a patient qualified (or did not qualify) for measure rules</t>
-  </si>
-  <si>
-    <t>MeasureReport.extension.id</t>
   </si>
   <si>
     <t>Unique id for inter-element referencing</t>
@@ -2703,13 +2707,13 @@
         <v>72</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>82</v>
+        <v>143</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
@@ -2760,7 +2764,7 @@
         <v>72</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="AF13" t="s" s="2">
         <v>73</v>
@@ -2778,12 +2782,12 @@
         <v>72</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
@@ -2854,7 +2858,7 @@
         <v>129</v>
       </c>
       <c r="AB14" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="AC14" t="s" s="2">
         <v>72</v>
@@ -2863,7 +2867,7 @@
         <v>130</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="AF14" t="s" s="2">
         <v>73</v>
@@ -2886,10 +2890,10 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C15" t="s" s="2">
         <v>72</v>
@@ -2911,13 +2915,13 @@
         <v>72</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
@@ -2968,7 +2972,7 @@
         <v>72</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>73</v>
@@ -2991,10 +2995,10 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C16" t="s" s="2">
         <v>72</v>
@@ -3016,13 +3020,13 @@
         <v>72</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
@@ -3073,7 +3077,7 @@
         <v>72</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>73</v>
@@ -3096,10 +3100,10 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C17" t="s" s="2">
         <v>72</v>
@@ -3121,13 +3125,13 @@
         <v>72</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
@@ -3178,7 +3182,7 @@
         <v>72</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>73</v>
@@ -3201,7 +3205,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
@@ -3227,13 +3231,13 @@
         <v>96</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" t="s" s="2">
@@ -3241,7 +3245,7 @@
       </c>
       <c r="P18" s="2"/>
       <c r="Q18" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="R18" t="s" s="2">
         <v>72</v>
@@ -3283,7 +3287,7 @@
         <v>72</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>80</v>
@@ -3306,7 +3310,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -3329,13 +3333,13 @@
         <v>72</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
@@ -3386,7 +3390,7 @@
         <v>72</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>73</v>
@@ -3409,11 +3413,11 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" t="s" s="2">
@@ -3435,16 +3439,16 @@
         <v>126</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="N20" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="O20" t="s" s="2">
         <v>72</v>
@@ -3493,7 +3497,7 @@
         <v>72</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>73</v>
@@ -3516,7 +3520,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -3539,19 +3543,19 @@
         <v>81</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="O21" t="s" s="2">
         <v>72</v>
@@ -3600,7 +3604,7 @@
         <v>72</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>73</v>
@@ -3615,7 +3619,7 @@
         <v>93</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AK21" t="s" s="2">
         <v>72</v>
@@ -3623,7 +3627,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -3649,13 +3653,13 @@
         <v>102</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" t="s" s="2">
@@ -3666,7 +3670,7 @@
         <v>72</v>
       </c>
       <c r="R22" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="S22" t="s" s="2">
         <v>72</v>
@@ -3681,13 +3685,13 @@
         <v>72</v>
       </c>
       <c r="W22" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Y22" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Z22" t="s" s="2">
         <v>72</v>
@@ -3705,7 +3709,7 @@
         <v>72</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>80</v>
@@ -3720,7 +3724,7 @@
         <v>93</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="AK22" t="s" s="2">
         <v>72</v>
@@ -3728,7 +3732,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -3754,13 +3758,13 @@
         <v>102</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
@@ -3786,13 +3790,13 @@
         <v>72</v>
       </c>
       <c r="W23" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Y23" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Z23" t="s" s="2">
         <v>72</v>
@@ -3810,7 +3814,7 @@
         <v>72</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>80</v>
@@ -3819,13 +3823,13 @@
         <v>80</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="AI23" t="s" s="2">
         <v>93</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="AK23" t="s" s="2">
         <v>72</v>
@@ -3833,7 +3837,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -3856,13 +3860,13 @@
         <v>81</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
@@ -3913,7 +3917,7 @@
         <v>72</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>80</v>
@@ -3928,7 +3932,7 @@
         <v>93</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="AK24" t="s" s="2">
         <v>72</v>
@@ -3936,7 +3940,7 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -3959,13 +3963,13 @@
         <v>81</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="M25" s="2"/>
       <c r="N25" s="2"/>
@@ -4016,7 +4020,7 @@
         <v>72</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>73</v>
@@ -4031,7 +4035,7 @@
         <v>93</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AK25" t="s" s="2">
         <v>72</v>
@@ -4039,7 +4043,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -4062,13 +4066,13 @@
         <v>81</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
@@ -4119,7 +4123,7 @@
         <v>72</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>73</v>
@@ -4134,7 +4138,7 @@
         <v>93</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="AK26" t="s" s="2">
         <v>72</v>
@@ -4142,7 +4146,7 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -4165,13 +4169,13 @@
         <v>81</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="M27" s="2"/>
       <c r="N27" s="2"/>
@@ -4222,7 +4226,7 @@
         <v>72</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>73</v>
@@ -4237,7 +4241,7 @@
         <v>93</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AK27" t="s" s="2">
         <v>72</v>
@@ -4245,7 +4249,7 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -4268,13 +4272,13 @@
         <v>81</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="M28" s="2"/>
       <c r="N28" s="2"/>
@@ -4325,7 +4329,7 @@
         <v>72</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>80</v>
@@ -4348,7 +4352,7 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -4371,16 +4375,16 @@
         <v>81</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
@@ -4406,13 +4410,13 @@
         <v>72</v>
       </c>
       <c r="W29" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Z29" t="s" s="2">
         <v>72</v>
@@ -4430,7 +4434,7 @@
         <v>72</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>73</v>
@@ -4453,7 +4457,7 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -4476,13 +4480,13 @@
         <v>72</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="M30" s="2"/>
       <c r="N30" s="2"/>
@@ -4533,7 +4537,7 @@
         <v>72</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>73</v>
@@ -4542,7 +4546,7 @@
         <v>74</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="AI30" t="s" s="2">
         <v>93</v>
@@ -4556,7 +4560,7 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -4579,13 +4583,13 @@
         <v>72</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>82</v>
+        <v>143</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="M31" s="2"/>
       <c r="N31" s="2"/>
@@ -4636,7 +4640,7 @@
         <v>72</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>73</v>
@@ -4654,16 +4658,16 @@
         <v>72</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D32" s="2"/>
       <c r="E32" t="s" s="2">
@@ -4685,13 +4689,13 @@
         <v>126</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
@@ -4741,7 +4745,7 @@
         <v>72</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>73</v>
@@ -4759,16 +4763,16 @@
         <v>72</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" t="s" s="2">
@@ -4790,16 +4794,16 @@
         <v>126</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="O33" t="s" s="2">
         <v>72</v>
@@ -4848,7 +4852,7 @@
         <v>72</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>73</v>
@@ -4871,7 +4875,7 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -4894,13 +4898,13 @@
         <v>81</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="M34" s="2"/>
       <c r="N34" s="2"/>
@@ -4951,7 +4955,7 @@
         <v>72</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>73</v>
@@ -4974,7 +4978,7 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -4982,7 +4986,7 @@
       </c>
       <c r="D35" s="2"/>
       <c r="E35" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="F35" t="s" s="2">
         <v>74</v>
@@ -4997,13 +5001,13 @@
         <v>72</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="M35" s="2"/>
       <c r="N35" s="2"/>
@@ -5042,10 +5046,10 @@
         <v>72</v>
       </c>
       <c r="AA35" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="AB35" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="AC35" t="s" s="2">
         <v>72</v>
@@ -5054,7 +5058,7 @@
         <v>130</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>73</v>
@@ -5077,7 +5081,7 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -5100,13 +5104,13 @@
         <v>72</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>82</v>
+        <v>143</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="M36" s="2"/>
       <c r="N36" s="2"/>
@@ -5157,7 +5161,7 @@
         <v>72</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>73</v>
@@ -5175,16 +5179,16 @@
         <v>72</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D37" s="2"/>
       <c r="E37" t="s" s="2">
@@ -5206,13 +5210,13 @@
         <v>126</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
@@ -5262,7 +5266,7 @@
         <v>72</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>73</v>
@@ -5280,16 +5284,16 @@
         <v>72</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="D38" s="2"/>
       <c r="E38" t="s" s="2">
@@ -5311,16 +5315,16 @@
         <v>126</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="O38" t="s" s="2">
         <v>72</v>
@@ -5369,7 +5373,7 @@
         <v>72</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>73</v>
@@ -5392,7 +5396,7 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -5415,13 +5419,13 @@
         <v>81</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="M39" s="2"/>
       <c r="N39" s="2"/>
@@ -5448,11 +5452,11 @@
         <v>72</v>
       </c>
       <c r="W39" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="X39" s="2"/>
       <c r="Y39" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Z39" t="s" s="2">
         <v>72</v>
@@ -5470,7 +5474,7 @@
         <v>72</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>73</v>
@@ -5493,7 +5497,7 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -5516,13 +5520,13 @@
         <v>72</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="M40" s="2"/>
       <c r="N40" s="2"/>
@@ -5573,7 +5577,7 @@
         <v>72</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>73</v>
@@ -5596,7 +5600,7 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -5619,13 +5623,13 @@
         <v>72</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="M41" s="2"/>
       <c r="N41" s="2"/>
@@ -5676,7 +5680,7 @@
         <v>72</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>73</v>
@@ -5699,10 +5703,10 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="C42" t="s" s="2">
         <v>72</v>
@@ -5724,13 +5728,13 @@
         <v>72</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="M42" s="2"/>
       <c r="N42" s="2"/>
@@ -5781,7 +5785,7 @@
         <v>72</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>73</v>
@@ -5804,7 +5808,7 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -5827,13 +5831,13 @@
         <v>72</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>82</v>
+        <v>143</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="M43" s="2"/>
       <c r="N43" s="2"/>
@@ -5884,7 +5888,7 @@
         <v>72</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>73</v>
@@ -5902,16 +5906,16 @@
         <v>72</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D44" s="2"/>
       <c r="E44" t="s" s="2">
@@ -5933,13 +5937,13 @@
         <v>126</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" t="s" s="2">
@@ -5989,7 +5993,7 @@
         <v>72</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>73</v>
@@ -6007,16 +6011,16 @@
         <v>72</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="D45" s="2"/>
       <c r="E45" t="s" s="2">
@@ -6038,16 +6042,16 @@
         <v>126</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="O45" t="s" s="2">
         <v>72</v>
@@ -6096,7 +6100,7 @@
         <v>72</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>73</v>
@@ -6119,7 +6123,7 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -6142,13 +6146,13 @@
         <v>81</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="M46" s="2"/>
       <c r="N46" s="2"/>
@@ -6160,7 +6164,7 @@
         <v>72</v>
       </c>
       <c r="R46" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="S46" t="s" s="2">
         <v>72</v>
@@ -6175,13 +6179,13 @@
         <v>72</v>
       </c>
       <c r="W46" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="X46" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Y46" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Z46" t="s" s="2">
         <v>72</v>
@@ -6199,7 +6203,7 @@
         <v>72</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>73</v>
@@ -6222,7 +6226,7 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -6245,13 +6249,13 @@
         <v>72</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="M47" s="2"/>
       <c r="N47" s="2"/>
@@ -6302,7 +6306,7 @@
         <v>72</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>73</v>
@@ -6325,7 +6329,7 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -6348,13 +6352,13 @@
         <v>72</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="M48" s="2"/>
       <c r="N48" s="2"/>
@@ -6405,7 +6409,7 @@
         <v>72</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>73</v>
@@ -6428,10 +6432,10 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C49" t="s" s="2">
         <v>72</v>
@@ -6453,13 +6457,13 @@
         <v>72</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="M49" s="2"/>
       <c r="N49" s="2"/>
@@ -6510,7 +6514,7 @@
         <v>72</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>73</v>
@@ -6533,7 +6537,7 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -6556,13 +6560,13 @@
         <v>72</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>82</v>
+        <v>143</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="M50" s="2"/>
       <c r="N50" s="2"/>
@@ -6613,7 +6617,7 @@
         <v>72</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>73</v>
@@ -6631,16 +6635,16 @@
         <v>72</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D51" s="2"/>
       <c r="E51" t="s" s="2">
@@ -6662,13 +6666,13 @@
         <v>126</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="N51" s="2"/>
       <c r="O51" t="s" s="2">
@@ -6718,7 +6722,7 @@
         <v>72</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>73</v>
@@ -6736,16 +6740,16 @@
         <v>72</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="D52" s="2"/>
       <c r="E52" t="s" s="2">
@@ -6767,16 +6771,16 @@
         <v>126</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="O52" t="s" s="2">
         <v>72</v>
@@ -6825,7 +6829,7 @@
         <v>72</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>73</v>
@@ -6848,7 +6852,7 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -6871,13 +6875,13 @@
         <v>81</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="M53" s="2"/>
       <c r="N53" s="2"/>
@@ -6889,7 +6893,7 @@
         <v>72</v>
       </c>
       <c r="R53" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="S53" t="s" s="2">
         <v>72</v>
@@ -6904,13 +6908,13 @@
         <v>72</v>
       </c>
       <c r="W53" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="X53" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Y53" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Z53" t="s" s="2">
         <v>72</v>
@@ -6928,7 +6932,7 @@
         <v>72</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>73</v>
@@ -6951,7 +6955,7 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -6974,13 +6978,13 @@
         <v>72</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="M54" s="2"/>
       <c r="N54" s="2"/>
@@ -7031,7 +7035,7 @@
         <v>72</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>73</v>
@@ -7054,7 +7058,7 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -7077,13 +7081,13 @@
         <v>72</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="M55" s="2"/>
       <c r="N55" s="2"/>
@@ -7134,7 +7138,7 @@
         <v>72</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>73</v>
@@ -7157,10 +7161,10 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="C56" t="s" s="2">
         <v>72</v>
@@ -7182,13 +7186,13 @@
         <v>72</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="M56" s="2"/>
       <c r="N56" s="2"/>
@@ -7239,7 +7243,7 @@
         <v>72</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>73</v>
@@ -7262,7 +7266,7 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -7285,13 +7289,13 @@
         <v>72</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>82</v>
+        <v>143</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="M57" s="2"/>
       <c r="N57" s="2"/>
@@ -7342,7 +7346,7 @@
         <v>72</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>73</v>
@@ -7360,16 +7364,16 @@
         <v>72</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D58" s="2"/>
       <c r="E58" t="s" s="2">
@@ -7391,13 +7395,13 @@
         <v>126</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="N58" s="2"/>
       <c r="O58" t="s" s="2">
@@ -7447,7 +7451,7 @@
         <v>72</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>73</v>
@@ -7465,16 +7469,16 @@
         <v>72</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="D59" s="2"/>
       <c r="E59" t="s" s="2">
@@ -7496,16 +7500,16 @@
         <v>126</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="N59" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="O59" t="s" s="2">
         <v>72</v>
@@ -7554,7 +7558,7 @@
         <v>72</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>73</v>
@@ -7577,7 +7581,7 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -7600,13 +7604,13 @@
         <v>81</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="M60" s="2"/>
       <c r="N60" s="2"/>
@@ -7618,7 +7622,7 @@
         <v>72</v>
       </c>
       <c r="R60" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="S60" t="s" s="2">
         <v>72</v>
@@ -7633,13 +7637,13 @@
         <v>72</v>
       </c>
       <c r="W60" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="X60" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Y60" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Z60" t="s" s="2">
         <v>72</v>
@@ -7657,7 +7661,7 @@
         <v>72</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>73</v>
@@ -7680,7 +7684,7 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -7703,13 +7707,13 @@
         <v>72</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="M61" s="2"/>
       <c r="N61" s="2"/>
@@ -7760,7 +7764,7 @@
         <v>72</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>73</v>
@@ -7783,7 +7787,7 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -7806,13 +7810,13 @@
         <v>72</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="M62" s="2"/>
       <c r="N62" s="2"/>
@@ -7863,7 +7867,7 @@
         <v>72</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>73</v>
@@ -7886,10 +7890,10 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="C63" t="s" s="2">
         <v>72</v>
@@ -7911,13 +7915,13 @@
         <v>72</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="M63" s="2"/>
       <c r="N63" s="2"/>
@@ -7968,7 +7972,7 @@
         <v>72</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>73</v>
@@ -7991,7 +7995,7 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -8014,13 +8018,13 @@
         <v>72</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>82</v>
+        <v>143</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="M64" s="2"/>
       <c r="N64" s="2"/>
@@ -8071,7 +8075,7 @@
         <v>72</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>73</v>
@@ -8089,16 +8093,16 @@
         <v>72</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D65" s="2"/>
       <c r="E65" t="s" s="2">
@@ -8120,13 +8124,13 @@
         <v>126</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="N65" s="2"/>
       <c r="O65" t="s" s="2">
@@ -8176,7 +8180,7 @@
         <v>72</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>73</v>
@@ -8194,16 +8198,16 @@
         <v>72</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="D66" s="2"/>
       <c r="E66" t="s" s="2">
@@ -8225,16 +8229,16 @@
         <v>126</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="N66" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="O66" t="s" s="2">
         <v>72</v>
@@ -8283,7 +8287,7 @@
         <v>72</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>73</v>
@@ -8306,7 +8310,7 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -8329,13 +8333,13 @@
         <v>81</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="M67" s="2"/>
       <c r="N67" s="2"/>
@@ -8347,7 +8351,7 @@
         <v>72</v>
       </c>
       <c r="R67" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="S67" t="s" s="2">
         <v>72</v>
@@ -8362,13 +8366,13 @@
         <v>72</v>
       </c>
       <c r="W67" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="X67" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Y67" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Z67" t="s" s="2">
         <v>72</v>
@@ -8386,7 +8390,7 @@
         <v>72</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>73</v>
@@ -8409,7 +8413,7 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
@@ -8432,13 +8436,13 @@
         <v>72</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="M68" s="2"/>
       <c r="N68" s="2"/>
@@ -8489,7 +8493,7 @@
         <v>72</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>73</v>
@@ -8512,7 +8516,7 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
@@ -8535,13 +8539,13 @@
         <v>72</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="M69" s="2"/>
       <c r="N69" s="2"/>
@@ -8592,7 +8596,7 @@
         <v>72</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>73</v>
@@ -8615,7 +8619,7 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
@@ -8638,13 +8642,13 @@
         <v>81</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="M70" s="2"/>
       <c r="N70" s="2"/>
@@ -8695,7 +8699,7 @@
         <v>72</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>73</v>
@@ -8718,7 +8722,7 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
@@ -8741,13 +8745,13 @@
         <v>72</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="M71" s="2"/>
       <c r="N71" s="2"/>
@@ -8798,7 +8802,7 @@
         <v>72</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>73</v>
@@ -8821,7 +8825,7 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
@@ -8844,13 +8848,13 @@
         <v>72</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>82</v>
+        <v>143</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="M72" s="2"/>
       <c r="N72" s="2"/>
@@ -8901,7 +8905,7 @@
         <v>72</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="AF72" t="s" s="2">
         <v>73</v>
@@ -8919,16 +8923,16 @@
         <v>72</v>
       </c>
       <c r="AK72" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D73" s="2"/>
       <c r="E73" t="s" s="2">
@@ -8950,13 +8954,13 @@
         <v>126</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="N73" s="2"/>
       <c r="O73" t="s" s="2">
@@ -9006,7 +9010,7 @@
         <v>72</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="AF73" t="s" s="2">
         <v>73</v>
@@ -9024,16 +9028,16 @@
         <v>72</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="D74" s="2"/>
       <c r="E74" t="s" s="2">
@@ -9055,16 +9059,16 @@
         <v>126</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="N74" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="O74" t="s" s="2">
         <v>72</v>
@@ -9113,7 +9117,7 @@
         <v>72</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="AF74" t="s" s="2">
         <v>73</v>
@@ -9136,7 +9140,7 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
@@ -9159,13 +9163,13 @@
         <v>72</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="M75" s="2"/>
       <c r="N75" s="2"/>
@@ -9216,7 +9220,7 @@
         <v>72</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="AF75" t="s" s="2">
         <v>73</v>
@@ -9239,7 +9243,7 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
@@ -9262,13 +9266,13 @@
         <v>72</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="M76" s="2"/>
       <c r="N76" s="2"/>
@@ -9319,7 +9323,7 @@
         <v>72</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="AF76" t="s" s="2">
         <v>73</v>
@@ -9342,7 +9346,7 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
@@ -9365,13 +9369,13 @@
         <v>72</v>
       </c>
       <c r="J77" t="s" s="2">
-        <v>82</v>
+        <v>143</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="M77" s="2"/>
       <c r="N77" s="2"/>
@@ -9422,7 +9426,7 @@
         <v>72</v>
       </c>
       <c r="AE77" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="AF77" t="s" s="2">
         <v>73</v>
@@ -9440,16 +9444,16 @@
         <v>72</v>
       </c>
       <c r="AK77" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D78" s="2"/>
       <c r="E78" t="s" s="2">
@@ -9471,13 +9475,13 @@
         <v>126</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="N78" s="2"/>
       <c r="O78" t="s" s="2">
@@ -9527,7 +9531,7 @@
         <v>72</v>
       </c>
       <c r="AE78" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="AF78" t="s" s="2">
         <v>73</v>
@@ -9545,16 +9549,16 @@
         <v>72</v>
       </c>
       <c r="AK78" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="D79" s="2"/>
       <c r="E79" t="s" s="2">
@@ -9576,16 +9580,16 @@
         <v>126</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="N79" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="O79" t="s" s="2">
         <v>72</v>
@@ -9634,7 +9638,7 @@
         <v>72</v>
       </c>
       <c r="AE79" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="AF79" t="s" s="2">
         <v>73</v>
@@ -9657,7 +9661,7 @@
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" t="s" s="2">
@@ -9680,13 +9684,13 @@
         <v>72</v>
       </c>
       <c r="J80" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="M80" s="2"/>
       <c r="N80" s="2"/>
@@ -9737,7 +9741,7 @@
         <v>72</v>
       </c>
       <c r="AE80" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="AF80" t="s" s="2">
         <v>73</v>
@@ -9760,7 +9764,7 @@
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="B81" s="2"/>
       <c r="C81" t="s" s="2">
@@ -9783,13 +9787,13 @@
         <v>72</v>
       </c>
       <c r="J81" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="M81" s="2"/>
       <c r="N81" s="2"/>
@@ -9840,7 +9844,7 @@
         <v>72</v>
       </c>
       <c r="AE81" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="AF81" t="s" s="2">
         <v>73</v>
@@ -9863,7 +9867,7 @@
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="B82" s="2"/>
       <c r="C82" t="s" s="2">
@@ -9886,13 +9890,13 @@
         <v>72</v>
       </c>
       <c r="J82" t="s" s="2">
-        <v>82</v>
+        <v>143</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="M82" s="2"/>
       <c r="N82" s="2"/>
@@ -9943,7 +9947,7 @@
         <v>72</v>
       </c>
       <c r="AE82" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="AF82" t="s" s="2">
         <v>73</v>
@@ -9961,16 +9965,16 @@
         <v>72</v>
       </c>
       <c r="AK82" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="B83" s="2"/>
       <c r="C83" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D83" s="2"/>
       <c r="E83" t="s" s="2">
@@ -9992,13 +9996,13 @@
         <v>126</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="N83" s="2"/>
       <c r="O83" t="s" s="2">
@@ -10048,7 +10052,7 @@
         <v>72</v>
       </c>
       <c r="AE83" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="AF83" t="s" s="2">
         <v>73</v>
@@ -10066,16 +10070,16 @@
         <v>72</v>
       </c>
       <c r="AK83" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="B84" s="2"/>
       <c r="C84" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="D84" s="2"/>
       <c r="E84" t="s" s="2">
@@ -10097,16 +10101,16 @@
         <v>126</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="N84" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="O84" t="s" s="2">
         <v>72</v>
@@ -10155,7 +10159,7 @@
         <v>72</v>
       </c>
       <c r="AE84" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="AF84" t="s" s="2">
         <v>73</v>
@@ -10178,7 +10182,7 @@
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="B85" s="2"/>
       <c r="C85" t="s" s="2">
@@ -10201,13 +10205,13 @@
         <v>72</v>
       </c>
       <c r="J85" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="M85" s="2"/>
       <c r="N85" s="2"/>
@@ -10258,7 +10262,7 @@
         <v>72</v>
       </c>
       <c r="AE85" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="AF85" t="s" s="2">
         <v>80</v>
@@ -10281,7 +10285,7 @@
     </row>
     <row r="86">
       <c r="A86" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="B86" s="2"/>
       <c r="C86" t="s" s="2">
@@ -10304,13 +10308,13 @@
         <v>72</v>
       </c>
       <c r="J86" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="M86" s="2"/>
       <c r="N86" s="2"/>
@@ -10361,7 +10365,7 @@
         <v>72</v>
       </c>
       <c r="AE86" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="AF86" t="s" s="2">
         <v>80</v>
@@ -10384,7 +10388,7 @@
     </row>
     <row r="87">
       <c r="A87" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="B87" s="2"/>
       <c r="C87" t="s" s="2">
@@ -10407,13 +10411,13 @@
         <v>72</v>
       </c>
       <c r="J87" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="M87" s="2"/>
       <c r="N87" s="2"/>
@@ -10464,7 +10468,7 @@
         <v>72</v>
       </c>
       <c r="AE87" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="AF87" t="s" s="2">
         <v>73</v>
@@ -10487,7 +10491,7 @@
     </row>
     <row r="88">
       <c r="A88" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="B88" s="2"/>
       <c r="C88" t="s" s="2">
@@ -10510,13 +10514,13 @@
         <v>72</v>
       </c>
       <c r="J88" t="s" s="2">
-        <v>82</v>
+        <v>143</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="M88" s="2"/>
       <c r="N88" s="2"/>
@@ -10567,7 +10571,7 @@
         <v>72</v>
       </c>
       <c r="AE88" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="AF88" t="s" s="2">
         <v>73</v>
@@ -10585,16 +10589,16 @@
         <v>72</v>
       </c>
       <c r="AK88" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="B89" s="2"/>
       <c r="C89" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D89" s="2"/>
       <c r="E89" t="s" s="2">
@@ -10616,13 +10620,13 @@
         <v>126</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="M89" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="N89" s="2"/>
       <c r="O89" t="s" s="2">
@@ -10672,7 +10676,7 @@
         <v>72</v>
       </c>
       <c r="AE89" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="AF89" t="s" s="2">
         <v>73</v>
@@ -10690,16 +10694,16 @@
         <v>72</v>
       </c>
       <c r="AK89" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="B90" s="2"/>
       <c r="C90" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="D90" s="2"/>
       <c r="E90" t="s" s="2">
@@ -10721,16 +10725,16 @@
         <v>126</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="M90" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="N90" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="O90" t="s" s="2">
         <v>72</v>
@@ -10779,7 +10783,7 @@
         <v>72</v>
       </c>
       <c r="AE90" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="AF90" t="s" s="2">
         <v>73</v>
@@ -10802,7 +10806,7 @@
     </row>
     <row r="91">
       <c r="A91" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="B91" s="2"/>
       <c r="C91" t="s" s="2">
@@ -10825,13 +10829,13 @@
         <v>72</v>
       </c>
       <c r="J91" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="M91" s="2"/>
       <c r="N91" s="2"/>
@@ -10858,13 +10862,13 @@
         <v>72</v>
       </c>
       <c r="W91" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="X91" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Y91" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Z91" t="s" s="2">
         <v>72</v>
@@ -10882,7 +10886,7 @@
         <v>72</v>
       </c>
       <c r="AE91" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="AF91" t="s" s="2">
         <v>73</v>
@@ -10905,7 +10909,7 @@
     </row>
     <row r="92">
       <c r="A92" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="B92" s="2"/>
       <c r="C92" t="s" s="2">
@@ -10928,13 +10932,13 @@
         <v>72</v>
       </c>
       <c r="J92" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="M92" s="2"/>
       <c r="N92" s="2"/>
@@ -10985,7 +10989,7 @@
         <v>72</v>
       </c>
       <c r="AE92" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="AF92" t="s" s="2">
         <v>73</v>
@@ -11008,7 +11012,7 @@
     </row>
     <row r="93">
       <c r="A93" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="B93" s="2"/>
       <c r="C93" t="s" s="2">
@@ -11031,13 +11035,13 @@
         <v>72</v>
       </c>
       <c r="J93" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="M93" s="2"/>
       <c r="N93" s="2"/>
@@ -11088,7 +11092,7 @@
         <v>72</v>
       </c>
       <c r="AE93" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="AF93" t="s" s="2">
         <v>73</v>
@@ -11111,7 +11115,7 @@
     </row>
     <row r="94">
       <c r="A94" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B94" s="2"/>
       <c r="C94" t="s" s="2">
@@ -11134,13 +11138,13 @@
         <v>72</v>
       </c>
       <c r="J94" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="M94" s="2"/>
       <c r="N94" s="2"/>
@@ -11191,7 +11195,7 @@
         <v>72</v>
       </c>
       <c r="AE94" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="AF94" t="s" s="2">
         <v>73</v>
@@ -11214,7 +11218,7 @@
     </row>
     <row r="95">
       <c r="A95" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="B95" s="2"/>
       <c r="C95" t="s" s="2">
@@ -11237,13 +11241,13 @@
         <v>72</v>
       </c>
       <c r="J95" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="K95" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="M95" s="2"/>
       <c r="N95" s="2"/>
@@ -11294,7 +11298,7 @@
         <v>72</v>
       </c>
       <c r="AE95" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="AF95" t="s" s="2">
         <v>73</v>

--- a/StructureDefinition-quality-measure-report-patient.xlsx
+++ b/StructureDefinition-quality-measure-report-patient.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3131" uniqueCount="335">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3131" uniqueCount="334">
   <si>
     <t>Property</t>
   </si>
@@ -24,13 +24,13 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://ibm.com/fhir/cdm/StructureDefinition/quality-measure-report-patient</t>
+    <t>http://linuxforhealth.org/fhir/cdm/StructureDefinition/quality-measure-report-patient</t>
   </si>
   <si>
     <t>Version</t>
   </si>
   <si>
-    <t>7.0.0</t>
+    <t>8.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,13 +57,13 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-08T16:11:15+00:00</t>
+    <t>2022-11-10T16:00:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
   </si>
   <si>
-    <t>Alvearie Team</t>
+    <t>LinuxForHealth Team</t>
   </si>
   <si>
     <t>Jurisdiction</t>
@@ -105,7 +105,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://ibm.com/fhir/cdm/StructureDefinition/quality-measure-report</t>
+    <t>http://linuxforhealth.org/fhir/cdm/StructureDefinition/quality-measure-report</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -244,10 +244,6 @@
   </si>
   <si>
     <t>The MeasureReport resource contains the results of the calculation of a measure; and optionally a reference to the resources involved in that calculation.</t>
-  </si>
-  <si>
-    <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}mrp-1:Measure Reports used for data collection SHALL NOT communicate group and score information {(type != 'data-collection') or group.exists().not()}mrp-2:Stratifiers SHALL be either a single criteria or a set of criteria components {group.stratifier.stratum.all(value.exists() xor component.exists())}</t>
   </si>
   <si>
     <t>Entity. Role, or Act</t>
@@ -281,7 +277,7 @@
     <t>MeasureReport.meta</t>
   </si>
   <si>
-    <t xml:space="preserve">Meta {http://ibm.com/fhir/cdm/StructureDefinition/process-meta}
+    <t xml:space="preserve">Meta {http://linuxforhealth.org/fhir/cdm/StructureDefinition/process-meta}
 </t>
   </si>
   <si>
@@ -431,7 +427,7 @@
     <t>measureParameterValue</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://ibm.com/fhir/cdm/StructureDefinition/measure-parameter-value}
+    <t xml:space="preserve">Extension {http://linuxforhealth.org/fhir/cdm/StructureDefinition/measure-parameter-value}
 </t>
   </si>
   <si>
@@ -441,7 +437,7 @@
     <t>measureReportAssignedPractitioner</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://ibm.com/fhir/cdm/StructureDefinition/measure-report-assigned-practitioner}
+    <t xml:space="preserve">Extension {http://linuxforhealth.org/fhir/cdm/StructureDefinition/measure-report-assigned-practitioner}
 </t>
   </si>
   <si>
@@ -451,7 +447,7 @@
     <t>measureReportEvidence</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://ibm.com/fhir/cdm/StructureDefinition/measure-report-evidence}
+    <t xml:space="preserve">Extension {http://linuxforhealth.org/fhir/cdm/StructureDefinition/measure-report-evidence}
 </t>
   </si>
   <si>
@@ -489,7 +485,7 @@
     <t>measureReportEvidenceText</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://ibm.com/fhir/cdm/StructureDefinition/measure-report-evidence-text}
+    <t xml:space="preserve">Extension {http://linuxforhealth.org/fhir/cdm/StructureDefinition/measure-report-evidence-text}
 </t>
   </si>
   <si>
@@ -499,7 +495,7 @@
     <t>measureReportEvidenceValue</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://ibm.com/fhir/cdm/StructureDefinition/measure-report-evidence-value}
+    <t xml:space="preserve">Extension {http://linuxforhealth.org/fhir/cdm/StructureDefinition/measure-report-evidence-value}
 </t>
   </si>
   <si>
@@ -509,7 +505,7 @@
     <t>measureReportEvidencePopulationId</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://ibm.com/fhir/cdm/StructureDefinition/measure-report-evidence-population-id}
+    <t xml:space="preserve">Extension {http://linuxforhealth.org/fhir/cdm/StructureDefinition/measure-report-evidence-population-id}
 </t>
   </si>
   <si>
@@ -528,7 +524,7 @@
     <t>The definition may point directly to a computable or human-readable definition of the extensibility codes, or it may be a logical URI as declared in some other specification. The definition SHALL be a URI for the Structure Definition defining the extension.</t>
   </si>
   <si>
-    <t>http://ibm.com/fhir/cdm/StructureDefinition/measure-report-evidence</t>
+    <t>http://linuxforhealth.org/fhir/cdm/StructureDefinition/measure-report-evidence</t>
   </si>
   <si>
     <t>Extension.url</t>
@@ -837,7 +833,7 @@
     <t>extensible</t>
   </si>
   <si>
-    <t>http://ibm.com/fhir/cdm/ValueSet/quality-measure-population-type</t>
+    <t>http://linuxforhealth.org/fhir/cdm/ValueSet/quality-measure-population-type</t>
   </si>
   <si>
     <t>MeasureReport.group.population.count</t>
@@ -916,7 +912,7 @@
   <si>
     <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
   &lt;coding&gt;
-    &lt;system value="http://ibm.com/fhir/cdm/CodeSystem/measure-population-type"/&gt;
+    &lt;system value="http://linuxforhealth.org/fhir/cdm/CodeSystem/measure-population-type"/&gt;
     &lt;code value="care-gap"/&gt;
   &lt;/coding&gt;
 &lt;/valueCodeableConcept&gt;</t>
@@ -1407,7 +1403,7 @@
     <col min="22" max="22" width="19.03515625" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="18.859375" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="139.44140625" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="62.44921875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="70.86328125" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="22.71875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="42.98828125" customWidth="true" bestFit="true"/>
@@ -1629,18 +1625,18 @@
         <v>72</v>
       </c>
       <c r="AI2" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AJ2" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AK2" t="s" s="2">
         <v>77</v>
-      </c>
-      <c r="AJ2" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AK2" t="s" s="2">
-        <v>78</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" t="s" s="2">
@@ -1651,28 +1647,28 @@
         <v>73</v>
       </c>
       <c r="F3" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G3" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="H3" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I3" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="G3" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="H3" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="I3" t="s" s="2">
+      <c r="J3" t="s" s="2">
         <v>81</v>
       </c>
-      <c r="J3" t="s" s="2">
+      <c r="K3" t="s" s="2">
         <v>82</v>
       </c>
-      <c r="K3" t="s" s="2">
+      <c r="L3" t="s" s="2">
         <v>83</v>
       </c>
-      <c r="L3" t="s" s="2">
+      <c r="M3" t="s" s="2">
         <v>84</v>
-      </c>
-      <c r="M3" t="s" s="2">
-        <v>85</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" t="s" s="2">
@@ -1722,13 +1718,13 @@
         <v>72</v>
       </c>
       <c r="AE3" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AF3" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AH3" t="s" s="2">
         <v>72</v>
@@ -1745,7 +1741,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" t="s" s="2">
@@ -1756,7 +1752,7 @@
         <v>73</v>
       </c>
       <c r="F4" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G4" t="s" s="2">
         <v>72</v>
@@ -1768,13 +1764,13 @@
         <v>72</v>
       </c>
       <c r="J4" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="K4" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="K4" t="s" s="2">
+      <c r="L4" t="s" s="2">
         <v>89</v>
-      </c>
-      <c r="L4" t="s" s="2">
-        <v>90</v>
       </c>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
@@ -1825,30 +1821,30 @@
         <v>72</v>
       </c>
       <c r="AE4" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AF4" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG4" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH4" t="s" s="2">
         <v>91</v>
       </c>
-      <c r="AF4" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AG4" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH4" t="s" s="2">
+      <c r="AI4" t="s" s="2">
         <v>92</v>
       </c>
-      <c r="AI4" t="s" s="2">
+      <c r="AJ4" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AK4" t="s" s="2">
         <v>93</v>
-      </c>
-      <c r="AJ4" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AK4" t="s" s="2">
-        <v>94</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" t="s" s="2">
@@ -1859,28 +1855,28 @@
         <v>73</v>
       </c>
       <c r="F5" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G5" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="H5" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="G5" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="H5" t="s" s="2">
-        <v>81</v>
-      </c>
       <c r="I5" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J5" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="K5" t="s" s="2">
         <v>96</v>
       </c>
-      <c r="K5" t="s" s="2">
+      <c r="L5" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="L5" t="s" s="2">
+      <c r="M5" t="s" s="2">
         <v>98</v>
-      </c>
-      <c r="M5" t="s" s="2">
-        <v>99</v>
       </c>
       <c r="N5" s="2"/>
       <c r="O5" t="s" s="2">
@@ -1930,19 +1926,19 @@
         <v>72</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AF5" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AH5" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI5" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AJ5" t="s" s="2">
         <v>72</v>
@@ -1953,7 +1949,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" t="s" s="2">
@@ -1964,7 +1960,7 @@
         <v>73</v>
       </c>
       <c r="F6" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G6" t="s" s="2">
         <v>72</v>
@@ -1976,16 +1972,16 @@
         <v>72</v>
       </c>
       <c r="J6" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="K6" t="s" s="2">
         <v>102</v>
       </c>
-      <c r="K6" t="s" s="2">
+      <c r="L6" t="s" s="2">
         <v>103</v>
       </c>
-      <c r="L6" t="s" s="2">
+      <c r="M6" t="s" s="2">
         <v>104</v>
-      </c>
-      <c r="M6" t="s" s="2">
-        <v>105</v>
       </c>
       <c r="N6" s="2"/>
       <c r="O6" t="s" s="2">
@@ -2011,43 +2007,43 @@
         <v>72</v>
       </c>
       <c r="W6" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="X6" t="s" s="2">
         <v>106</v>
       </c>
-      <c r="X6" t="s" s="2">
+      <c r="Y6" t="s" s="2">
         <v>107</v>
       </c>
-      <c r="Y6" t="s" s="2">
+      <c r="Z6" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AA6" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB6" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC6" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD6" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE6" t="s" s="2">
         <v>108</v>
       </c>
-      <c r="Z6" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AA6" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AB6" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AC6" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AD6" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AE6" t="s" s="2">
-        <v>109</v>
-      </c>
       <c r="AF6" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG6" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AH6" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AJ6" t="s" s="2">
         <v>72</v>
@@ -2058,18 +2054,18 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" t="s" s="2">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" t="s" s="2">
         <v>73</v>
       </c>
       <c r="F7" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G7" t="s" s="2">
         <v>72</v>
@@ -2081,16 +2077,16 @@
         <v>72</v>
       </c>
       <c r="J7" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="K7" t="s" s="2">
         <v>112</v>
       </c>
-      <c r="K7" t="s" s="2">
+      <c r="L7" t="s" s="2">
         <v>113</v>
       </c>
-      <c r="L7" t="s" s="2">
+      <c r="M7" t="s" s="2">
         <v>114</v>
-      </c>
-      <c r="M7" t="s" s="2">
-        <v>115</v>
       </c>
       <c r="N7" s="2"/>
       <c r="O7" t="s" s="2">
@@ -2140,34 +2136,34 @@
         <v>72</v>
       </c>
       <c r="AE7" t="s" s="2">
+        <v>115</v>
+      </c>
+      <c r="AF7" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG7" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH7" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AI7" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AJ7" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AK7" t="s" s="2">
         <v>116</v>
-      </c>
-      <c r="AF7" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AG7" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH7" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AI7" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="AJ7" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AK7" t="s" s="2">
-        <v>117</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" t="s" s="2">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" t="s" s="2">
@@ -2186,16 +2182,16 @@
         <v>72</v>
       </c>
       <c r="J8" t="s" s="2">
+        <v>119</v>
+      </c>
+      <c r="K8" t="s" s="2">
         <v>120</v>
       </c>
-      <c r="K8" t="s" s="2">
+      <c r="L8" t="s" s="2">
         <v>121</v>
       </c>
-      <c r="L8" t="s" s="2">
+      <c r="M8" t="s" s="2">
         <v>122</v>
-      </c>
-      <c r="M8" t="s" s="2">
-        <v>123</v>
       </c>
       <c r="N8" s="2"/>
       <c r="O8" t="s" s="2">
@@ -2245,7 +2241,7 @@
         <v>72</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="AF8" t="s" s="2">
         <v>73</v>
@@ -2263,12 +2259,12 @@
         <v>72</v>
       </c>
       <c r="AK8" t="s" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
@@ -2291,13 +2287,13 @@
         <v>72</v>
       </c>
       <c r="J9" t="s" s="2">
+        <v>125</v>
+      </c>
+      <c r="K9" t="s" s="2">
         <v>126</v>
       </c>
-      <c r="K9" t="s" s="2">
+      <c r="L9" t="s" s="2">
         <v>127</v>
-      </c>
-      <c r="L9" t="s" s="2">
-        <v>128</v>
       </c>
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>
@@ -2336,17 +2332,17 @@
         <v>72</v>
       </c>
       <c r="AA9" t="s" s="2">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="AB9" s="2"/>
       <c r="AC9" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AD9" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="AE9" t="s" s="2">
         <v>130</v>
-      </c>
-      <c r="AE9" t="s" s="2">
-        <v>131</v>
       </c>
       <c r="AF9" t="s" s="2">
         <v>73</v>
@@ -2358,7 +2354,7 @@
         <v>72</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AJ9" t="s" s="2">
         <v>72</v>
@@ -2369,10 +2365,10 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C10" t="s" s="2">
         <v>72</v>
@@ -2394,13 +2390,13 @@
         <v>72</v>
       </c>
       <c r="J10" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="K10" t="s" s="2">
         <v>134</v>
       </c>
-      <c r="K10" t="s" s="2">
-        <v>135</v>
-      </c>
       <c r="L10" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="M10" s="2"/>
       <c r="N10" s="2"/>
@@ -2451,7 +2447,7 @@
         <v>72</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="AF10" t="s" s="2">
         <v>73</v>
@@ -2460,10 +2456,10 @@
         <v>74</v>
       </c>
       <c r="AH10" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AJ10" t="s" s="2">
         <v>72</v>
@@ -2474,10 +2470,10 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C11" t="s" s="2">
         <v>72</v>
@@ -2487,7 +2483,7 @@
         <v>73</v>
       </c>
       <c r="F11" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G11" t="s" s="2">
         <v>72</v>
@@ -2499,13 +2495,13 @@
         <v>72</v>
       </c>
       <c r="J11" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="K11" t="s" s="2">
         <v>137</v>
       </c>
-      <c r="K11" t="s" s="2">
-        <v>138</v>
-      </c>
       <c r="L11" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
@@ -2556,7 +2552,7 @@
         <v>72</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="AF11" t="s" s="2">
         <v>73</v>
@@ -2568,7 +2564,7 @@
         <v>72</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AJ11" t="s" s="2">
         <v>72</v>
@@ -2579,10 +2575,10 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C12" t="s" s="2">
         <v>72</v>
@@ -2604,13 +2600,13 @@
         <v>72</v>
       </c>
       <c r="J12" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="K12" t="s" s="2">
         <v>140</v>
       </c>
-      <c r="K12" t="s" s="2">
-        <v>141</v>
-      </c>
       <c r="L12" t="s" s="2">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
@@ -2661,7 +2657,7 @@
         <v>72</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="AF12" t="s" s="2">
         <v>73</v>
@@ -2673,7 +2669,7 @@
         <v>72</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AJ12" t="s" s="2">
         <v>72</v>
@@ -2684,7 +2680,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
@@ -2695,7 +2691,7 @@
         <v>73</v>
       </c>
       <c r="F13" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G13" t="s" s="2">
         <v>72</v>
@@ -2707,13 +2703,13 @@
         <v>72</v>
       </c>
       <c r="J13" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="K13" t="s" s="2">
         <v>143</v>
       </c>
-      <c r="K13" t="s" s="2">
+      <c r="L13" t="s" s="2">
         <v>144</v>
-      </c>
-      <c r="L13" t="s" s="2">
-        <v>145</v>
       </c>
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
@@ -2764,30 +2760,30 @@
         <v>72</v>
       </c>
       <c r="AE13" t="s" s="2">
+        <v>145</v>
+      </c>
+      <c r="AF13" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG13" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH13" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AI13" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AJ13" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AK13" t="s" s="2">
         <v>146</v>
-      </c>
-      <c r="AF13" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AG13" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH13" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AI13" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AJ13" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AK13" t="s" s="2">
-        <v>147</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
@@ -2795,7 +2791,7 @@
       </c>
       <c r="D14" s="2"/>
       <c r="E14" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F14" t="s" s="2">
         <v>74</v>
@@ -2810,13 +2806,13 @@
         <v>72</v>
       </c>
       <c r="J14" t="s" s="2">
+        <v>125</v>
+      </c>
+      <c r="K14" t="s" s="2">
         <v>126</v>
       </c>
-      <c r="K14" t="s" s="2">
+      <c r="L14" t="s" s="2">
         <v>127</v>
-      </c>
-      <c r="L14" t="s" s="2">
-        <v>128</v>
       </c>
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
@@ -2855,19 +2851,19 @@
         <v>72</v>
       </c>
       <c r="AA14" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="AB14" t="s" s="2">
+        <v>148</v>
+      </c>
+      <c r="AC14" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD14" t="s" s="2">
         <v>129</v>
       </c>
-      <c r="AB14" t="s" s="2">
+      <c r="AE14" t="s" s="2">
         <v>149</v>
-      </c>
-      <c r="AC14" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AD14" t="s" s="2">
-        <v>130</v>
-      </c>
-      <c r="AE14" t="s" s="2">
-        <v>150</v>
       </c>
       <c r="AF14" t="s" s="2">
         <v>73</v>
@@ -2879,7 +2875,7 @@
         <v>72</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AJ14" t="s" s="2">
         <v>72</v>
@@ -2890,20 +2886,20 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C15" t="s" s="2">
         <v>72</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F15" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G15" t="s" s="2">
         <v>72</v>
@@ -2915,13 +2911,13 @@
         <v>72</v>
       </c>
       <c r="J15" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="K15" t="s" s="2">
         <v>152</v>
       </c>
-      <c r="K15" t="s" s="2">
-        <v>153</v>
-      </c>
       <c r="L15" t="s" s="2">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
@@ -2972,7 +2968,7 @@
         <v>72</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>73</v>
@@ -2984,7 +2980,7 @@
         <v>72</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AJ15" t="s" s="2">
         <v>72</v>
@@ -2995,10 +2991,10 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C16" t="s" s="2">
         <v>72</v>
@@ -3020,13 +3016,13 @@
         <v>72</v>
       </c>
       <c r="J16" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="K16" t="s" s="2">
         <v>155</v>
       </c>
-      <c r="K16" t="s" s="2">
-        <v>156</v>
-      </c>
       <c r="L16" t="s" s="2">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
@@ -3077,7 +3073,7 @@
         <v>72</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>73</v>
@@ -3089,7 +3085,7 @@
         <v>72</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AJ16" t="s" s="2">
         <v>72</v>
@@ -3100,10 +3096,10 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C17" t="s" s="2">
         <v>72</v>
@@ -3125,13 +3121,13 @@
         <v>72</v>
       </c>
       <c r="J17" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="K17" t="s" s="2">
         <v>158</v>
       </c>
-      <c r="K17" t="s" s="2">
-        <v>159</v>
-      </c>
       <c r="L17" t="s" s="2">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
@@ -3182,7 +3178,7 @@
         <v>72</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>73</v>
@@ -3194,7 +3190,7 @@
         <v>72</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AJ17" t="s" s="2">
         <v>72</v>
@@ -3205,7 +3201,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
@@ -3213,10 +3209,10 @@
       </c>
       <c r="D18" s="2"/>
       <c r="E18" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F18" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G18" t="s" s="2">
         <v>72</v>
@@ -3228,16 +3224,16 @@
         <v>72</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="K18" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="L18" t="s" s="2">
         <v>161</v>
       </c>
-      <c r="L18" t="s" s="2">
+      <c r="M18" t="s" s="2">
         <v>162</v>
-      </c>
-      <c r="M18" t="s" s="2">
-        <v>163</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" t="s" s="2">
@@ -3245,55 +3241,55 @@
       </c>
       <c r="P18" s="2"/>
       <c r="Q18" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="R18" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="S18" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="T18" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="U18" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="V18" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="W18" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="X18" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Y18" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Z18" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AA18" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB18" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC18" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD18" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE18" t="s" s="2">
         <v>164</v>
       </c>
-      <c r="R18" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="S18" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="T18" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="U18" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="V18" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="W18" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="X18" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="Y18" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="Z18" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AA18" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AB18" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AC18" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AD18" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AE18" t="s" s="2">
-        <v>165</v>
-      </c>
       <c r="AF18" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AH18" t="s" s="2">
         <v>72</v>
@@ -3305,12 +3301,12 @@
         <v>72</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -3333,13 +3329,13 @@
         <v>72</v>
       </c>
       <c r="J19" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="K19" t="s" s="2">
         <v>167</v>
       </c>
-      <c r="K19" t="s" s="2">
+      <c r="L19" t="s" s="2">
         <v>168</v>
-      </c>
-      <c r="L19" t="s" s="2">
-        <v>169</v>
       </c>
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
@@ -3390,34 +3386,34 @@
         <v>72</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AH19" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI19" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AJ19" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AK19" t="s" s="2">
         <v>93</v>
-      </c>
-      <c r="AJ19" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AK19" t="s" s="2">
-        <v>94</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" t="s" s="2">
@@ -3430,25 +3426,25 @@
         <v>72</v>
       </c>
       <c r="H20" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I20" t="s" s="2">
         <v>72</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="K20" t="s" s="2">
+        <v>172</v>
+      </c>
+      <c r="L20" t="s" s="2">
         <v>173</v>
       </c>
-      <c r="L20" t="s" s="2">
+      <c r="M20" t="s" s="2">
         <v>174</v>
       </c>
-      <c r="M20" t="s" s="2">
+      <c r="N20" t="s" s="2">
         <v>175</v>
-      </c>
-      <c r="N20" t="s" s="2">
-        <v>176</v>
       </c>
       <c r="O20" t="s" s="2">
         <v>72</v>
@@ -3497,7 +3493,7 @@
         <v>72</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>73</v>
@@ -3509,18 +3505,18 @@
         <v>72</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AJ20" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -3540,22 +3536,22 @@
         <v>72</v>
       </c>
       <c r="I21" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J21" t="s" s="2">
+        <v>178</v>
+      </c>
+      <c r="K21" t="s" s="2">
         <v>179</v>
       </c>
-      <c r="K21" t="s" s="2">
+      <c r="L21" t="s" s="2">
         <v>180</v>
       </c>
-      <c r="L21" t="s" s="2">
+      <c r="M21" t="s" s="2">
         <v>181</v>
       </c>
-      <c r="M21" t="s" s="2">
+      <c r="N21" t="s" s="2">
         <v>182</v>
-      </c>
-      <c r="N21" t="s" s="2">
-        <v>183</v>
       </c>
       <c r="O21" t="s" s="2">
         <v>72</v>
@@ -3604,7 +3600,7 @@
         <v>72</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>73</v>
@@ -3616,10 +3612,10 @@
         <v>72</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="AK21" t="s" s="2">
         <v>72</v>
@@ -3627,7 +3623,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -3635,31 +3631,31 @@
       </c>
       <c r="D22" s="2"/>
       <c r="E22" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="F22" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G22" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="H22" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="F22" t="s" s="2">
+      <c r="I22" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="G22" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="H22" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="I22" t="s" s="2">
-        <v>81</v>
-      </c>
       <c r="J22" t="s" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="K22" t="s" s="2">
+        <v>185</v>
+      </c>
+      <c r="L22" t="s" s="2">
         <v>186</v>
       </c>
-      <c r="L22" t="s" s="2">
+      <c r="M22" t="s" s="2">
         <v>187</v>
-      </c>
-      <c r="M22" t="s" s="2">
-        <v>188</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" t="s" s="2">
@@ -3670,61 +3666,61 @@
         <v>72</v>
       </c>
       <c r="R22" t="s" s="2">
+        <v>188</v>
+      </c>
+      <c r="S22" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="T22" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="U22" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="V22" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="W22" t="s" s="2">
         <v>189</v>
       </c>
-      <c r="S22" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="T22" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="U22" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="V22" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="W22" t="s" s="2">
+      <c r="X22" t="s" s="2">
         <v>190</v>
       </c>
-      <c r="X22" t="s" s="2">
+      <c r="Y22" t="s" s="2">
         <v>191</v>
       </c>
-      <c r="Y22" t="s" s="2">
+      <c r="Z22" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AA22" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB22" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC22" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD22" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE22" t="s" s="2">
+        <v>184</v>
+      </c>
+      <c r="AF22" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AG22" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH22" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AI22" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AJ22" t="s" s="2">
         <v>192</v>
-      </c>
-      <c r="Z22" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AA22" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AB22" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AC22" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AD22" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AE22" t="s" s="2">
-        <v>185</v>
-      </c>
-      <c r="AF22" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AG22" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH22" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AI22" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="AJ22" t="s" s="2">
-        <v>193</v>
       </c>
       <c r="AK22" t="s" s="2">
         <v>72</v>
@@ -3732,7 +3728,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -3740,31 +3736,31 @@
       </c>
       <c r="D23" s="2"/>
       <c r="E23" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="F23" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G23" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="H23" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I23" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="F23" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="G23" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="H23" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="I23" t="s" s="2">
-        <v>81</v>
-      </c>
       <c r="J23" t="s" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="K23" t="s" s="2">
+        <v>194</v>
+      </c>
+      <c r="L23" t="s" s="2">
         <v>195</v>
       </c>
-      <c r="L23" t="s" s="2">
+      <c r="M23" t="s" s="2">
         <v>196</v>
-      </c>
-      <c r="M23" t="s" s="2">
-        <v>197</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
@@ -3790,46 +3786,46 @@
         <v>72</v>
       </c>
       <c r="W23" t="s" s="2">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="X23" t="s" s="2">
+        <v>197</v>
+      </c>
+      <c r="Y23" t="s" s="2">
         <v>198</v>
       </c>
-      <c r="Y23" t="s" s="2">
+      <c r="Z23" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AA23" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB23" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC23" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD23" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE23" t="s" s="2">
+        <v>193</v>
+      </c>
+      <c r="AF23" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AG23" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH23" t="s" s="2">
         <v>199</v>
       </c>
-      <c r="Z23" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AA23" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AB23" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AC23" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AD23" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AE23" t="s" s="2">
-        <v>194</v>
-      </c>
-      <c r="AF23" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AG23" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH23" t="s" s="2">
+      <c r="AI23" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AJ23" t="s" s="2">
         <v>200</v>
-      </c>
-      <c r="AI23" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="AJ23" t="s" s="2">
-        <v>201</v>
       </c>
       <c r="AK23" t="s" s="2">
         <v>72</v>
@@ -3837,7 +3833,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -3845,28 +3841,28 @@
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="F24" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G24" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="H24" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I24" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="F24" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="G24" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="H24" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="I24" t="s" s="2">
-        <v>81</v>
-      </c>
       <c r="J24" t="s" s="2">
+        <v>202</v>
+      </c>
+      <c r="K24" t="s" s="2">
         <v>203</v>
       </c>
-      <c r="K24" t="s" s="2">
+      <c r="L24" t="s" s="2">
         <v>204</v>
-      </c>
-      <c r="L24" t="s" s="2">
-        <v>205</v>
       </c>
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
@@ -3917,22 +3913,22 @@
         <v>72</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AH24" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="AK24" t="s" s="2">
         <v>72</v>
@@ -3940,7 +3936,7 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -3948,28 +3944,28 @@
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="F25" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G25" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="H25" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I25" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="F25" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="G25" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="H25" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="I25" t="s" s="2">
-        <v>81</v>
-      </c>
       <c r="J25" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="K25" t="s" s="2">
         <v>208</v>
       </c>
-      <c r="K25" t="s" s="2">
+      <c r="L25" t="s" s="2">
         <v>209</v>
-      </c>
-      <c r="L25" t="s" s="2">
-        <v>210</v>
       </c>
       <c r="M25" s="2"/>
       <c r="N25" s="2"/>
@@ -4020,22 +4016,22 @@
         <v>72</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AH25" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="AK25" t="s" s="2">
         <v>72</v>
@@ -4043,7 +4039,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -4054,25 +4050,25 @@
         <v>73</v>
       </c>
       <c r="F26" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G26" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="H26" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I26" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="G26" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="H26" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="I26" t="s" s="2">
-        <v>81</v>
-      </c>
       <c r="J26" t="s" s="2">
+        <v>212</v>
+      </c>
+      <c r="K26" t="s" s="2">
         <v>213</v>
       </c>
-      <c r="K26" t="s" s="2">
+      <c r="L26" t="s" s="2">
         <v>214</v>
-      </c>
-      <c r="L26" t="s" s="2">
-        <v>215</v>
       </c>
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
@@ -4123,22 +4119,22 @@
         <v>72</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AH26" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="AK26" t="s" s="2">
         <v>72</v>
@@ -4146,7 +4142,7 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -4157,25 +4153,25 @@
         <v>73</v>
       </c>
       <c r="F27" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G27" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="H27" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I27" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="G27" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="H27" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="I27" t="s" s="2">
-        <v>81</v>
-      </c>
       <c r="J27" t="s" s="2">
+        <v>217</v>
+      </c>
+      <c r="K27" t="s" s="2">
         <v>218</v>
       </c>
-      <c r="K27" t="s" s="2">
+      <c r="L27" t="s" s="2">
         <v>219</v>
-      </c>
-      <c r="L27" t="s" s="2">
-        <v>220</v>
       </c>
       <c r="M27" s="2"/>
       <c r="N27" s="2"/>
@@ -4226,22 +4222,22 @@
         <v>72</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AH27" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="AK27" t="s" s="2">
         <v>72</v>
@@ -4249,7 +4245,7 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -4257,28 +4253,28 @@
       </c>
       <c r="D28" s="2"/>
       <c r="E28" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="F28" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G28" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="H28" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I28" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="F28" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="G28" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="H28" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="I28" t="s" s="2">
-        <v>81</v>
-      </c>
       <c r="J28" t="s" s="2">
+        <v>222</v>
+      </c>
+      <c r="K28" t="s" s="2">
         <v>223</v>
       </c>
-      <c r="K28" t="s" s="2">
+      <c r="L28" t="s" s="2">
         <v>224</v>
-      </c>
-      <c r="L28" t="s" s="2">
-        <v>225</v>
       </c>
       <c r="M28" s="2"/>
       <c r="N28" s="2"/>
@@ -4329,19 +4325,19 @@
         <v>72</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AH28" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AJ28" t="s" s="2">
         <v>72</v>
@@ -4352,7 +4348,7 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -4363,28 +4359,28 @@
         <v>73</v>
       </c>
       <c r="F29" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G29" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="H29" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="G29" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="H29" t="s" s="2">
-        <v>81</v>
-      </c>
       <c r="I29" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J29" t="s" s="2">
+        <v>226</v>
+      </c>
+      <c r="K29" t="s" s="2">
         <v>227</v>
       </c>
-      <c r="K29" t="s" s="2">
+      <c r="L29" t="s" s="2">
         <v>228</v>
       </c>
-      <c r="L29" t="s" s="2">
+      <c r="M29" t="s" s="2">
         <v>229</v>
-      </c>
-      <c r="M29" t="s" s="2">
-        <v>230</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
@@ -4410,14 +4406,14 @@
         <v>72</v>
       </c>
       <c r="W29" t="s" s="2">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="X29" t="s" s="2">
+        <v>230</v>
+      </c>
+      <c r="Y29" t="s" s="2">
         <v>231</v>
       </c>
-      <c r="Y29" t="s" s="2">
-        <v>232</v>
-      </c>
       <c r="Z29" t="s" s="2">
         <v>72</v>
       </c>
@@ -4434,19 +4430,19 @@
         <v>72</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AH29" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AJ29" t="s" s="2">
         <v>72</v>
@@ -4457,7 +4453,7 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -4465,10 +4461,10 @@
       </c>
       <c r="D30" s="2"/>
       <c r="E30" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F30" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G30" t="s" s="2">
         <v>72</v>
@@ -4480,13 +4476,13 @@
         <v>72</v>
       </c>
       <c r="J30" t="s" s="2">
+        <v>233</v>
+      </c>
+      <c r="K30" t="s" s="2">
         <v>234</v>
       </c>
-      <c r="K30" t="s" s="2">
+      <c r="L30" t="s" s="2">
         <v>235</v>
-      </c>
-      <c r="L30" t="s" s="2">
-        <v>236</v>
       </c>
       <c r="M30" s="2"/>
       <c r="N30" s="2"/>
@@ -4537,7 +4533,7 @@
         <v>72</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>73</v>
@@ -4546,10 +4542,10 @@
         <v>74</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AJ30" t="s" s="2">
         <v>72</v>
@@ -4560,7 +4556,7 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -4571,7 +4567,7 @@
         <v>73</v>
       </c>
       <c r="F31" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G31" t="s" s="2">
         <v>72</v>
@@ -4583,13 +4579,13 @@
         <v>72</v>
       </c>
       <c r="J31" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="K31" t="s" s="2">
         <v>143</v>
       </c>
-      <c r="K31" t="s" s="2">
+      <c r="L31" t="s" s="2">
         <v>144</v>
-      </c>
-      <c r="L31" t="s" s="2">
-        <v>145</v>
       </c>
       <c r="M31" s="2"/>
       <c r="N31" s="2"/>
@@ -4640,34 +4636,34 @@
         <v>72</v>
       </c>
       <c r="AE31" t="s" s="2">
+        <v>145</v>
+      </c>
+      <c r="AF31" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG31" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH31" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AI31" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AJ31" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AK31" t="s" s="2">
         <v>146</v>
-      </c>
-      <c r="AF31" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AG31" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH31" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AI31" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AJ31" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AK31" t="s" s="2">
-        <v>147</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D32" s="2"/>
       <c r="E32" t="s" s="2">
@@ -4686,16 +4682,16 @@
         <v>72</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="K32" t="s" s="2">
+        <v>238</v>
+      </c>
+      <c r="L32" t="s" s="2">
         <v>239</v>
       </c>
-      <c r="L32" t="s" s="2">
-        <v>240</v>
-      </c>
       <c r="M32" t="s" s="2">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
@@ -4745,7 +4741,7 @@
         <v>72</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>73</v>
@@ -4757,22 +4753,22 @@
         <v>72</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AJ32" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" t="s" s="2">
@@ -4785,25 +4781,25 @@
         <v>72</v>
       </c>
       <c r="H33" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I33" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="K33" t="s" s="2">
+        <v>242</v>
+      </c>
+      <c r="L33" t="s" s="2">
         <v>243</v>
       </c>
-      <c r="L33" t="s" s="2">
-        <v>244</v>
-      </c>
       <c r="M33" t="s" s="2">
+        <v>174</v>
+      </c>
+      <c r="N33" t="s" s="2">
         <v>175</v>
-      </c>
-      <c r="N33" t="s" s="2">
-        <v>176</v>
       </c>
       <c r="O33" t="s" s="2">
         <v>72</v>
@@ -4852,7 +4848,7 @@
         <v>72</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>73</v>
@@ -4864,18 +4860,18 @@
         <v>72</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AJ33" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -4886,25 +4882,25 @@
         <v>73</v>
       </c>
       <c r="F34" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G34" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="H34" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I34" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="G34" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="H34" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="I34" t="s" s="2">
-        <v>81</v>
-      </c>
       <c r="J34" t="s" s="2">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="K34" t="s" s="2">
+        <v>246</v>
+      </c>
+      <c r="L34" t="s" s="2">
         <v>247</v>
-      </c>
-      <c r="L34" t="s" s="2">
-        <v>248</v>
       </c>
       <c r="M34" s="2"/>
       <c r="N34" s="2"/>
@@ -4955,19 +4951,19 @@
         <v>72</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AH34" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AJ34" t="s" s="2">
         <v>72</v>
@@ -4978,7 +4974,7 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -4986,7 +4982,7 @@
       </c>
       <c r="D35" s="2"/>
       <c r="E35" t="s" s="2">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="F35" t="s" s="2">
         <v>74</v>
@@ -5001,13 +4997,13 @@
         <v>72</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="K35" t="s" s="2">
+        <v>250</v>
+      </c>
+      <c r="L35" t="s" s="2">
         <v>251</v>
-      </c>
-      <c r="L35" t="s" s="2">
-        <v>252</v>
       </c>
       <c r="M35" s="2"/>
       <c r="N35" s="2"/>
@@ -5046,19 +5042,19 @@
         <v>72</v>
       </c>
       <c r="AA35" t="s" s="2">
+        <v>252</v>
+      </c>
+      <c r="AB35" t="s" s="2">
         <v>253</v>
       </c>
-      <c r="AB35" t="s" s="2">
-        <v>254</v>
-      </c>
       <c r="AC35" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AD35" t="s" s="2">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>73</v>
@@ -5070,7 +5066,7 @@
         <v>72</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AJ35" t="s" s="2">
         <v>72</v>
@@ -5081,7 +5077,7 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -5092,7 +5088,7 @@
         <v>73</v>
       </c>
       <c r="F36" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G36" t="s" s="2">
         <v>72</v>
@@ -5104,13 +5100,13 @@
         <v>72</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="M36" s="2"/>
       <c r="N36" s="2"/>
@@ -5161,34 +5157,34 @@
         <v>72</v>
       </c>
       <c r="AE36" t="s" s="2">
+        <v>145</v>
+      </c>
+      <c r="AF36" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG36" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH36" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AI36" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AJ36" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AK36" t="s" s="2">
         <v>146</v>
-      </c>
-      <c r="AF36" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AG36" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH36" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AI36" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AJ36" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AK36" t="s" s="2">
-        <v>147</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D37" s="2"/>
       <c r="E37" t="s" s="2">
@@ -5207,16 +5203,16 @@
         <v>72</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="K37" t="s" s="2">
+        <v>238</v>
+      </c>
+      <c r="L37" t="s" s="2">
         <v>239</v>
       </c>
-      <c r="L37" t="s" s="2">
-        <v>240</v>
-      </c>
       <c r="M37" t="s" s="2">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
@@ -5266,7 +5262,7 @@
         <v>72</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>73</v>
@@ -5278,22 +5274,22 @@
         <v>72</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AJ37" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D38" s="2"/>
       <c r="E38" t="s" s="2">
@@ -5306,25 +5302,25 @@
         <v>72</v>
       </c>
       <c r="H38" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I38" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="K38" t="s" s="2">
+        <v>242</v>
+      </c>
+      <c r="L38" t="s" s="2">
         <v>243</v>
       </c>
-      <c r="L38" t="s" s="2">
-        <v>244</v>
-      </c>
       <c r="M38" t="s" s="2">
+        <v>174</v>
+      </c>
+      <c r="N38" t="s" s="2">
         <v>175</v>
-      </c>
-      <c r="N38" t="s" s="2">
-        <v>176</v>
       </c>
       <c r="O38" t="s" s="2">
         <v>72</v>
@@ -5373,7 +5369,7 @@
         <v>72</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>73</v>
@@ -5385,18 +5381,18 @@
         <v>72</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AJ38" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -5407,25 +5403,25 @@
         <v>73</v>
       </c>
       <c r="F39" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G39" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="H39" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I39" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="G39" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="H39" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="I39" t="s" s="2">
-        <v>81</v>
-      </c>
       <c r="J39" t="s" s="2">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="M39" s="2"/>
       <c r="N39" s="2"/>
@@ -5452,11 +5448,11 @@
         <v>72</v>
       </c>
       <c r="W39" t="s" s="2">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="X39" s="2"/>
       <c r="Y39" t="s" s="2">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="Z39" t="s" s="2">
         <v>72</v>
@@ -5474,19 +5470,19 @@
         <v>72</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AH39" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AJ39" t="s" s="2">
         <v>72</v>
@@ -5497,7 +5493,7 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -5508,7 +5504,7 @@
         <v>73</v>
       </c>
       <c r="F40" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G40" t="s" s="2">
         <v>72</v>
@@ -5520,13 +5516,13 @@
         <v>72</v>
       </c>
       <c r="J40" t="s" s="2">
+        <v>263</v>
+      </c>
+      <c r="K40" t="s" s="2">
         <v>264</v>
       </c>
-      <c r="K40" t="s" s="2">
+      <c r="L40" t="s" s="2">
         <v>265</v>
-      </c>
-      <c r="L40" t="s" s="2">
-        <v>266</v>
       </c>
       <c r="M40" s="2"/>
       <c r="N40" s="2"/>
@@ -5577,19 +5573,19 @@
         <v>72</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG40" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AH40" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AJ40" t="s" s="2">
         <v>72</v>
@@ -5600,7 +5596,7 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -5611,7 +5607,7 @@
         <v>73</v>
       </c>
       <c r="F41" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G41" t="s" s="2">
         <v>72</v>
@@ -5623,13 +5619,13 @@
         <v>72</v>
       </c>
       <c r="J41" t="s" s="2">
+        <v>267</v>
+      </c>
+      <c r="K41" t="s" s="2">
         <v>268</v>
       </c>
-      <c r="K41" t="s" s="2">
+      <c r="L41" t="s" s="2">
         <v>269</v>
-      </c>
-      <c r="L41" t="s" s="2">
-        <v>270</v>
       </c>
       <c r="M41" s="2"/>
       <c r="N41" s="2"/>
@@ -5680,19 +5676,19 @@
         <v>72</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG41" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AH41" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AJ41" t="s" s="2">
         <v>72</v>
@@ -5703,20 +5699,20 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C42" t="s" s="2">
         <v>72</v>
       </c>
       <c r="D42" s="2"/>
       <c r="E42" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F42" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G42" t="s" s="2">
         <v>72</v>
@@ -5728,13 +5724,13 @@
         <v>72</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="K42" t="s" s="2">
+        <v>250</v>
+      </c>
+      <c r="L42" t="s" s="2">
         <v>251</v>
-      </c>
-      <c r="L42" t="s" s="2">
-        <v>252</v>
       </c>
       <c r="M42" s="2"/>
       <c r="N42" s="2"/>
@@ -5785,7 +5781,7 @@
         <v>72</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>73</v>
@@ -5797,7 +5793,7 @@
         <v>72</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AJ42" t="s" s="2">
         <v>72</v>
@@ -5808,7 +5804,7 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -5819,7 +5815,7 @@
         <v>73</v>
       </c>
       <c r="F43" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G43" t="s" s="2">
         <v>72</v>
@@ -5831,13 +5827,13 @@
         <v>72</v>
       </c>
       <c r="J43" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="K43" t="s" s="2">
         <v>143</v>
       </c>
-      <c r="K43" t="s" s="2">
+      <c r="L43" t="s" s="2">
         <v>144</v>
-      </c>
-      <c r="L43" t="s" s="2">
-        <v>145</v>
       </c>
       <c r="M43" s="2"/>
       <c r="N43" s="2"/>
@@ -5888,34 +5884,34 @@
         <v>72</v>
       </c>
       <c r="AE43" t="s" s="2">
+        <v>145</v>
+      </c>
+      <c r="AF43" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG43" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH43" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AI43" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AJ43" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AK43" t="s" s="2">
         <v>146</v>
-      </c>
-      <c r="AF43" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AG43" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH43" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AI43" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AJ43" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AK43" t="s" s="2">
-        <v>147</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D44" s="2"/>
       <c r="E44" t="s" s="2">
@@ -5934,16 +5930,16 @@
         <v>72</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="K44" t="s" s="2">
+        <v>238</v>
+      </c>
+      <c r="L44" t="s" s="2">
         <v>239</v>
       </c>
-      <c r="L44" t="s" s="2">
-        <v>240</v>
-      </c>
       <c r="M44" t="s" s="2">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" t="s" s="2">
@@ -5993,7 +5989,7 @@
         <v>72</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>73</v>
@@ -6005,22 +6001,22 @@
         <v>72</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AJ44" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D45" s="2"/>
       <c r="E45" t="s" s="2">
@@ -6033,25 +6029,25 @@
         <v>72</v>
       </c>
       <c r="H45" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I45" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="K45" t="s" s="2">
+        <v>242</v>
+      </c>
+      <c r="L45" t="s" s="2">
         <v>243</v>
       </c>
-      <c r="L45" t="s" s="2">
-        <v>244</v>
-      </c>
       <c r="M45" t="s" s="2">
+        <v>174</v>
+      </c>
+      <c r="N45" t="s" s="2">
         <v>175</v>
-      </c>
-      <c r="N45" t="s" s="2">
-        <v>176</v>
       </c>
       <c r="O45" t="s" s="2">
         <v>72</v>
@@ -6100,7 +6096,7 @@
         <v>72</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>73</v>
@@ -6112,18 +6108,18 @@
         <v>72</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AJ45" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -6131,28 +6127,28 @@
       </c>
       <c r="D46" s="2"/>
       <c r="E46" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="F46" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G46" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="H46" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I46" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="F46" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="G46" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="H46" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="I46" t="s" s="2">
-        <v>81</v>
-      </c>
       <c r="J46" t="s" s="2">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="K46" t="s" s="2">
+        <v>271</v>
+      </c>
+      <c r="L46" t="s" s="2">
         <v>272</v>
-      </c>
-      <c r="L46" t="s" s="2">
-        <v>273</v>
       </c>
       <c r="M46" s="2"/>
       <c r="N46" s="2"/>
@@ -6164,29 +6160,29 @@
         <v>72</v>
       </c>
       <c r="R46" t="s" s="2">
+        <v>273</v>
+      </c>
+      <c r="S46" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="T46" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="U46" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="V46" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="W46" t="s" s="2">
+        <v>260</v>
+      </c>
+      <c r="X46" t="s" s="2">
         <v>274</v>
       </c>
-      <c r="S46" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="T46" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="U46" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="V46" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="W46" t="s" s="2">
-        <v>261</v>
-      </c>
-      <c r="X46" t="s" s="2">
+      <c r="Y46" t="s" s="2">
         <v>275</v>
       </c>
-      <c r="Y46" t="s" s="2">
-        <v>276</v>
-      </c>
       <c r="Z46" t="s" s="2">
         <v>72</v>
       </c>
@@ -6203,19 +6199,19 @@
         <v>72</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG46" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AH46" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AJ46" t="s" s="2">
         <v>72</v>
@@ -6226,7 +6222,7 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -6237,7 +6233,7 @@
         <v>73</v>
       </c>
       <c r="F47" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G47" t="s" s="2">
         <v>72</v>
@@ -6249,13 +6245,13 @@
         <v>72</v>
       </c>
       <c r="J47" t="s" s="2">
+        <v>263</v>
+      </c>
+      <c r="K47" t="s" s="2">
         <v>264</v>
       </c>
-      <c r="K47" t="s" s="2">
+      <c r="L47" t="s" s="2">
         <v>265</v>
-      </c>
-      <c r="L47" t="s" s="2">
-        <v>266</v>
       </c>
       <c r="M47" s="2"/>
       <c r="N47" s="2"/>
@@ -6267,7 +6263,7 @@
         <v>72</v>
       </c>
       <c r="R47" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="S47" t="s" s="2">
         <v>72</v>
@@ -6306,19 +6302,19 @@
         <v>72</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG47" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AH47" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AJ47" t="s" s="2">
         <v>72</v>
@@ -6329,7 +6325,7 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -6352,13 +6348,13 @@
         <v>72</v>
       </c>
       <c r="J48" t="s" s="2">
+        <v>267</v>
+      </c>
+      <c r="K48" t="s" s="2">
         <v>268</v>
       </c>
-      <c r="K48" t="s" s="2">
+      <c r="L48" t="s" s="2">
         <v>269</v>
-      </c>
-      <c r="L48" t="s" s="2">
-        <v>270</v>
       </c>
       <c r="M48" s="2"/>
       <c r="N48" s="2"/>
@@ -6409,19 +6405,19 @@
         <v>72</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG48" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AH48" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AJ48" t="s" s="2">
         <v>72</v>
@@ -6432,20 +6428,20 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C49" t="s" s="2">
         <v>72</v>
       </c>
       <c r="D49" s="2"/>
       <c r="E49" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F49" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G49" t="s" s="2">
         <v>72</v>
@@ -6457,13 +6453,13 @@
         <v>72</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="K49" t="s" s="2">
+        <v>250</v>
+      </c>
+      <c r="L49" t="s" s="2">
         <v>251</v>
-      </c>
-      <c r="L49" t="s" s="2">
-        <v>252</v>
       </c>
       <c r="M49" s="2"/>
       <c r="N49" s="2"/>
@@ -6514,7 +6510,7 @@
         <v>72</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>73</v>
@@ -6526,7 +6522,7 @@
         <v>72</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AJ49" t="s" s="2">
         <v>72</v>
@@ -6537,7 +6533,7 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -6548,7 +6544,7 @@
         <v>73</v>
       </c>
       <c r="F50" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G50" t="s" s="2">
         <v>72</v>
@@ -6560,13 +6556,13 @@
         <v>72</v>
       </c>
       <c r="J50" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="K50" t="s" s="2">
         <v>143</v>
       </c>
-      <c r="K50" t="s" s="2">
+      <c r="L50" t="s" s="2">
         <v>144</v>
-      </c>
-      <c r="L50" t="s" s="2">
-        <v>145</v>
       </c>
       <c r="M50" s="2"/>
       <c r="N50" s="2"/>
@@ -6617,34 +6613,34 @@
         <v>72</v>
       </c>
       <c r="AE50" t="s" s="2">
+        <v>145</v>
+      </c>
+      <c r="AF50" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG50" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH50" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AI50" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AJ50" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AK50" t="s" s="2">
         <v>146</v>
-      </c>
-      <c r="AF50" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AG50" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH50" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AI50" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AJ50" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AK50" t="s" s="2">
-        <v>147</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D51" s="2"/>
       <c r="E51" t="s" s="2">
@@ -6663,16 +6659,16 @@
         <v>72</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="K51" t="s" s="2">
+        <v>238</v>
+      </c>
+      <c r="L51" t="s" s="2">
         <v>239</v>
       </c>
-      <c r="L51" t="s" s="2">
-        <v>240</v>
-      </c>
       <c r="M51" t="s" s="2">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="N51" s="2"/>
       <c r="O51" t="s" s="2">
@@ -6722,7 +6718,7 @@
         <v>72</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>73</v>
@@ -6734,22 +6730,22 @@
         <v>72</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AJ51" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D52" s="2"/>
       <c r="E52" t="s" s="2">
@@ -6762,25 +6758,25 @@
         <v>72</v>
       </c>
       <c r="H52" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I52" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="K52" t="s" s="2">
+        <v>242</v>
+      </c>
+      <c r="L52" t="s" s="2">
         <v>243</v>
       </c>
-      <c r="L52" t="s" s="2">
-        <v>244</v>
-      </c>
       <c r="M52" t="s" s="2">
+        <v>174</v>
+      </c>
+      <c r="N52" t="s" s="2">
         <v>175</v>
-      </c>
-      <c r="N52" t="s" s="2">
-        <v>176</v>
       </c>
       <c r="O52" t="s" s="2">
         <v>72</v>
@@ -6829,7 +6825,7 @@
         <v>72</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>73</v>
@@ -6841,18 +6837,18 @@
         <v>72</v>
       </c>
       <c r="AI52" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AJ52" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -6860,28 +6856,28 @@
       </c>
       <c r="D53" s="2"/>
       <c r="E53" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="F53" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G53" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="H53" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I53" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="F53" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="G53" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="H53" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="I53" t="s" s="2">
-        <v>81</v>
-      </c>
       <c r="J53" t="s" s="2">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="K53" t="s" s="2">
+        <v>271</v>
+      </c>
+      <c r="L53" t="s" s="2">
         <v>272</v>
-      </c>
-      <c r="L53" t="s" s="2">
-        <v>273</v>
       </c>
       <c r="M53" s="2"/>
       <c r="N53" s="2"/>
@@ -6893,7 +6889,7 @@
         <v>72</v>
       </c>
       <c r="R53" t="s" s="2">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="S53" t="s" s="2">
         <v>72</v>
@@ -6908,14 +6904,14 @@
         <v>72</v>
       </c>
       <c r="W53" t="s" s="2">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="X53" t="s" s="2">
+        <v>274</v>
+      </c>
+      <c r="Y53" t="s" s="2">
         <v>275</v>
       </c>
-      <c r="Y53" t="s" s="2">
-        <v>276</v>
-      </c>
       <c r="Z53" t="s" s="2">
         <v>72</v>
       </c>
@@ -6932,19 +6928,19 @@
         <v>72</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG53" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AH53" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI53" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AJ53" t="s" s="2">
         <v>72</v>
@@ -6955,7 +6951,7 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -6966,7 +6962,7 @@
         <v>73</v>
       </c>
       <c r="F54" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G54" t="s" s="2">
         <v>72</v>
@@ -6978,13 +6974,13 @@
         <v>72</v>
       </c>
       <c r="J54" t="s" s="2">
+        <v>263</v>
+      </c>
+      <c r="K54" t="s" s="2">
         <v>264</v>
       </c>
-      <c r="K54" t="s" s="2">
+      <c r="L54" t="s" s="2">
         <v>265</v>
-      </c>
-      <c r="L54" t="s" s="2">
-        <v>266</v>
       </c>
       <c r="M54" s="2"/>
       <c r="N54" s="2"/>
@@ -7035,19 +7031,19 @@
         <v>72</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG54" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AH54" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI54" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AJ54" t="s" s="2">
         <v>72</v>
@@ -7058,7 +7054,7 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -7081,13 +7077,13 @@
         <v>72</v>
       </c>
       <c r="J55" t="s" s="2">
+        <v>267</v>
+      </c>
+      <c r="K55" t="s" s="2">
         <v>268</v>
       </c>
-      <c r="K55" t="s" s="2">
+      <c r="L55" t="s" s="2">
         <v>269</v>
-      </c>
-      <c r="L55" t="s" s="2">
-        <v>270</v>
       </c>
       <c r="M55" s="2"/>
       <c r="N55" s="2"/>
@@ -7138,19 +7134,19 @@
         <v>72</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG55" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AH55" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI55" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AJ55" t="s" s="2">
         <v>72</v>
@@ -7161,20 +7157,20 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C56" t="s" s="2">
         <v>72</v>
       </c>
       <c r="D56" s="2"/>
       <c r="E56" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F56" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G56" t="s" s="2">
         <v>72</v>
@@ -7186,13 +7182,13 @@
         <v>72</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="K56" t="s" s="2">
+        <v>250</v>
+      </c>
+      <c r="L56" t="s" s="2">
         <v>251</v>
-      </c>
-      <c r="L56" t="s" s="2">
-        <v>252</v>
       </c>
       <c r="M56" s="2"/>
       <c r="N56" s="2"/>
@@ -7243,7 +7239,7 @@
         <v>72</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>73</v>
@@ -7255,7 +7251,7 @@
         <v>72</v>
       </c>
       <c r="AI56" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AJ56" t="s" s="2">
         <v>72</v>
@@ -7266,7 +7262,7 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -7277,7 +7273,7 @@
         <v>73</v>
       </c>
       <c r="F57" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G57" t="s" s="2">
         <v>72</v>
@@ -7289,13 +7285,13 @@
         <v>72</v>
       </c>
       <c r="J57" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="K57" t="s" s="2">
         <v>143</v>
       </c>
-      <c r="K57" t="s" s="2">
+      <c r="L57" t="s" s="2">
         <v>144</v>
-      </c>
-      <c r="L57" t="s" s="2">
-        <v>145</v>
       </c>
       <c r="M57" s="2"/>
       <c r="N57" s="2"/>
@@ -7346,34 +7342,34 @@
         <v>72</v>
       </c>
       <c r="AE57" t="s" s="2">
+        <v>145</v>
+      </c>
+      <c r="AF57" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG57" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH57" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AI57" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AJ57" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AK57" t="s" s="2">
         <v>146</v>
-      </c>
-      <c r="AF57" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AG57" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH57" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AI57" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AJ57" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AK57" t="s" s="2">
-        <v>147</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D58" s="2"/>
       <c r="E58" t="s" s="2">
@@ -7392,16 +7388,16 @@
         <v>72</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="K58" t="s" s="2">
+        <v>238</v>
+      </c>
+      <c r="L58" t="s" s="2">
         <v>239</v>
       </c>
-      <c r="L58" t="s" s="2">
-        <v>240</v>
-      </c>
       <c r="M58" t="s" s="2">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="N58" s="2"/>
       <c r="O58" t="s" s="2">
@@ -7451,7 +7447,7 @@
         <v>72</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>73</v>
@@ -7463,22 +7459,22 @@
         <v>72</v>
       </c>
       <c r="AI58" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AJ58" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D59" s="2"/>
       <c r="E59" t="s" s="2">
@@ -7491,25 +7487,25 @@
         <v>72</v>
       </c>
       <c r="H59" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I59" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="K59" t="s" s="2">
+        <v>242</v>
+      </c>
+      <c r="L59" t="s" s="2">
         <v>243</v>
       </c>
-      <c r="L59" t="s" s="2">
-        <v>244</v>
-      </c>
       <c r="M59" t="s" s="2">
+        <v>174</v>
+      </c>
+      <c r="N59" t="s" s="2">
         <v>175</v>
-      </c>
-      <c r="N59" t="s" s="2">
-        <v>176</v>
       </c>
       <c r="O59" t="s" s="2">
         <v>72</v>
@@ -7558,7 +7554,7 @@
         <v>72</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>73</v>
@@ -7570,18 +7566,18 @@
         <v>72</v>
       </c>
       <c r="AI59" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AJ59" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -7589,28 +7585,28 @@
       </c>
       <c r="D60" s="2"/>
       <c r="E60" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="F60" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G60" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="H60" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I60" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="F60" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="G60" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="H60" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="I60" t="s" s="2">
-        <v>81</v>
-      </c>
       <c r="J60" t="s" s="2">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="K60" t="s" s="2">
+        <v>271</v>
+      </c>
+      <c r="L60" t="s" s="2">
         <v>272</v>
-      </c>
-      <c r="L60" t="s" s="2">
-        <v>273</v>
       </c>
       <c r="M60" s="2"/>
       <c r="N60" s="2"/>
@@ -7622,7 +7618,7 @@
         <v>72</v>
       </c>
       <c r="R60" t="s" s="2">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="S60" t="s" s="2">
         <v>72</v>
@@ -7637,14 +7633,14 @@
         <v>72</v>
       </c>
       <c r="W60" t="s" s="2">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="X60" t="s" s="2">
+        <v>274</v>
+      </c>
+      <c r="Y60" t="s" s="2">
         <v>275</v>
       </c>
-      <c r="Y60" t="s" s="2">
-        <v>276</v>
-      </c>
       <c r="Z60" t="s" s="2">
         <v>72</v>
       </c>
@@ -7661,19 +7657,19 @@
         <v>72</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG60" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AH60" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI60" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AJ60" t="s" s="2">
         <v>72</v>
@@ -7684,7 +7680,7 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -7695,7 +7691,7 @@
         <v>73</v>
       </c>
       <c r="F61" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G61" t="s" s="2">
         <v>72</v>
@@ -7707,13 +7703,13 @@
         <v>72</v>
       </c>
       <c r="J61" t="s" s="2">
+        <v>263</v>
+      </c>
+      <c r="K61" t="s" s="2">
         <v>264</v>
       </c>
-      <c r="K61" t="s" s="2">
+      <c r="L61" t="s" s="2">
         <v>265</v>
-      </c>
-      <c r="L61" t="s" s="2">
-        <v>266</v>
       </c>
       <c r="M61" s="2"/>
       <c r="N61" s="2"/>
@@ -7764,19 +7760,19 @@
         <v>72</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG61" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AH61" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI61" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AJ61" t="s" s="2">
         <v>72</v>
@@ -7787,7 +7783,7 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -7810,13 +7806,13 @@
         <v>72</v>
       </c>
       <c r="J62" t="s" s="2">
+        <v>267</v>
+      </c>
+      <c r="K62" t="s" s="2">
         <v>268</v>
       </c>
-      <c r="K62" t="s" s="2">
+      <c r="L62" t="s" s="2">
         <v>269</v>
-      </c>
-      <c r="L62" t="s" s="2">
-        <v>270</v>
       </c>
       <c r="M62" s="2"/>
       <c r="N62" s="2"/>
@@ -7867,19 +7863,19 @@
         <v>72</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG62" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AH62" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI62" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AJ62" t="s" s="2">
         <v>72</v>
@@ -7890,10 +7886,10 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C63" t="s" s="2">
         <v>72</v>
@@ -7915,13 +7911,13 @@
         <v>72</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="K63" t="s" s="2">
+        <v>250</v>
+      </c>
+      <c r="L63" t="s" s="2">
         <v>251</v>
-      </c>
-      <c r="L63" t="s" s="2">
-        <v>252</v>
       </c>
       <c r="M63" s="2"/>
       <c r="N63" s="2"/>
@@ -7972,7 +7968,7 @@
         <v>72</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>73</v>
@@ -7984,7 +7980,7 @@
         <v>72</v>
       </c>
       <c r="AI63" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AJ63" t="s" s="2">
         <v>72</v>
@@ -7995,7 +7991,7 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -8006,7 +8002,7 @@
         <v>73</v>
       </c>
       <c r="F64" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G64" t="s" s="2">
         <v>72</v>
@@ -8018,13 +8014,13 @@
         <v>72</v>
       </c>
       <c r="J64" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="K64" t="s" s="2">
         <v>143</v>
       </c>
-      <c r="K64" t="s" s="2">
+      <c r="L64" t="s" s="2">
         <v>144</v>
-      </c>
-      <c r="L64" t="s" s="2">
-        <v>145</v>
       </c>
       <c r="M64" s="2"/>
       <c r="N64" s="2"/>
@@ -8075,34 +8071,34 @@
         <v>72</v>
       </c>
       <c r="AE64" t="s" s="2">
+        <v>145</v>
+      </c>
+      <c r="AF64" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG64" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH64" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AI64" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AJ64" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AK64" t="s" s="2">
         <v>146</v>
-      </c>
-      <c r="AF64" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AG64" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH64" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AI64" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AJ64" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AK64" t="s" s="2">
-        <v>147</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D65" s="2"/>
       <c r="E65" t="s" s="2">
@@ -8121,16 +8117,16 @@
         <v>72</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="K65" t="s" s="2">
+        <v>238</v>
+      </c>
+      <c r="L65" t="s" s="2">
         <v>239</v>
       </c>
-      <c r="L65" t="s" s="2">
-        <v>240</v>
-      </c>
       <c r="M65" t="s" s="2">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="N65" s="2"/>
       <c r="O65" t="s" s="2">
@@ -8180,7 +8176,7 @@
         <v>72</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>73</v>
@@ -8192,22 +8188,22 @@
         <v>72</v>
       </c>
       <c r="AI65" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AJ65" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D66" s="2"/>
       <c r="E66" t="s" s="2">
@@ -8220,25 +8216,25 @@
         <v>72</v>
       </c>
       <c r="H66" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I66" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="K66" t="s" s="2">
+        <v>242</v>
+      </c>
+      <c r="L66" t="s" s="2">
         <v>243</v>
       </c>
-      <c r="L66" t="s" s="2">
-        <v>244</v>
-      </c>
       <c r="M66" t="s" s="2">
+        <v>174</v>
+      </c>
+      <c r="N66" t="s" s="2">
         <v>175</v>
-      </c>
-      <c r="N66" t="s" s="2">
-        <v>176</v>
       </c>
       <c r="O66" t="s" s="2">
         <v>72</v>
@@ -8287,7 +8283,7 @@
         <v>72</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>73</v>
@@ -8299,18 +8295,18 @@
         <v>72</v>
       </c>
       <c r="AI66" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AJ66" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -8318,28 +8314,28 @@
       </c>
       <c r="D67" s="2"/>
       <c r="E67" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="F67" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G67" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="H67" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I67" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="F67" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="G67" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="H67" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="I67" t="s" s="2">
-        <v>81</v>
-      </c>
       <c r="J67" t="s" s="2">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="K67" t="s" s="2">
+        <v>271</v>
+      </c>
+      <c r="L67" t="s" s="2">
         <v>272</v>
-      </c>
-      <c r="L67" t="s" s="2">
-        <v>273</v>
       </c>
       <c r="M67" s="2"/>
       <c r="N67" s="2"/>
@@ -8351,7 +8347,7 @@
         <v>72</v>
       </c>
       <c r="R67" t="s" s="2">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="S67" t="s" s="2">
         <v>72</v>
@@ -8366,14 +8362,14 @@
         <v>72</v>
       </c>
       <c r="W67" t="s" s="2">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="X67" t="s" s="2">
+        <v>274</v>
+      </c>
+      <c r="Y67" t="s" s="2">
         <v>275</v>
       </c>
-      <c r="Y67" t="s" s="2">
-        <v>276</v>
-      </c>
       <c r="Z67" t="s" s="2">
         <v>72</v>
       </c>
@@ -8390,19 +8386,19 @@
         <v>72</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG67" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AH67" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI67" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AJ67" t="s" s="2">
         <v>72</v>
@@ -8413,7 +8409,7 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
@@ -8424,7 +8420,7 @@
         <v>73</v>
       </c>
       <c r="F68" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G68" t="s" s="2">
         <v>72</v>
@@ -8436,13 +8432,13 @@
         <v>72</v>
       </c>
       <c r="J68" t="s" s="2">
+        <v>263</v>
+      </c>
+      <c r="K68" t="s" s="2">
         <v>264</v>
       </c>
-      <c r="K68" t="s" s="2">
+      <c r="L68" t="s" s="2">
         <v>265</v>
-      </c>
-      <c r="L68" t="s" s="2">
-        <v>266</v>
       </c>
       <c r="M68" s="2"/>
       <c r="N68" s="2"/>
@@ -8493,19 +8489,19 @@
         <v>72</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG68" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AH68" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI68" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AJ68" t="s" s="2">
         <v>72</v>
@@ -8516,7 +8512,7 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
@@ -8539,13 +8535,13 @@
         <v>72</v>
       </c>
       <c r="J69" t="s" s="2">
+        <v>267</v>
+      </c>
+      <c r="K69" t="s" s="2">
         <v>268</v>
       </c>
-      <c r="K69" t="s" s="2">
+      <c r="L69" t="s" s="2">
         <v>269</v>
-      </c>
-      <c r="L69" t="s" s="2">
-        <v>270</v>
       </c>
       <c r="M69" s="2"/>
       <c r="N69" s="2"/>
@@ -8596,19 +8592,19 @@
         <v>72</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG69" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AH69" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI69" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AJ69" t="s" s="2">
         <v>72</v>
@@ -8619,7 +8615,7 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
@@ -8630,25 +8626,25 @@
         <v>73</v>
       </c>
       <c r="F70" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G70" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="H70" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I70" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="G70" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="H70" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="I70" t="s" s="2">
-        <v>81</v>
-      </c>
       <c r="J70" t="s" s="2">
+        <v>283</v>
+      </c>
+      <c r="K70" t="s" s="2">
         <v>284</v>
       </c>
-      <c r="K70" t="s" s="2">
+      <c r="L70" t="s" s="2">
         <v>285</v>
-      </c>
-      <c r="L70" t="s" s="2">
-        <v>286</v>
       </c>
       <c r="M70" s="2"/>
       <c r="N70" s="2"/>
@@ -8699,19 +8695,19 @@
         <v>72</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG70" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AH70" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI70" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AJ70" t="s" s="2">
         <v>72</v>
@@ -8722,7 +8718,7 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
@@ -8745,13 +8741,13 @@
         <v>72</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="K71" t="s" s="2">
+        <v>287</v>
+      </c>
+      <c r="L71" t="s" s="2">
         <v>288</v>
-      </c>
-      <c r="L71" t="s" s="2">
-        <v>289</v>
       </c>
       <c r="M71" s="2"/>
       <c r="N71" s="2"/>
@@ -8802,7 +8798,7 @@
         <v>72</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>73</v>
@@ -8814,7 +8810,7 @@
         <v>72</v>
       </c>
       <c r="AI71" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AJ71" t="s" s="2">
         <v>72</v>
@@ -8825,7 +8821,7 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
@@ -8836,7 +8832,7 @@
         <v>73</v>
       </c>
       <c r="F72" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G72" t="s" s="2">
         <v>72</v>
@@ -8848,13 +8844,13 @@
         <v>72</v>
       </c>
       <c r="J72" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="K72" t="s" s="2">
         <v>143</v>
       </c>
-      <c r="K72" t="s" s="2">
+      <c r="L72" t="s" s="2">
         <v>144</v>
-      </c>
-      <c r="L72" t="s" s="2">
-        <v>145</v>
       </c>
       <c r="M72" s="2"/>
       <c r="N72" s="2"/>
@@ -8905,34 +8901,34 @@
         <v>72</v>
       </c>
       <c r="AE72" t="s" s="2">
+        <v>145</v>
+      </c>
+      <c r="AF72" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG72" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH72" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AI72" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AJ72" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AK72" t="s" s="2">
         <v>146</v>
-      </c>
-      <c r="AF72" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AG72" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH72" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AI72" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AJ72" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AK72" t="s" s="2">
-        <v>147</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D73" s="2"/>
       <c r="E73" t="s" s="2">
@@ -8951,16 +8947,16 @@
         <v>72</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="K73" t="s" s="2">
+        <v>238</v>
+      </c>
+      <c r="L73" t="s" s="2">
         <v>239</v>
       </c>
-      <c r="L73" t="s" s="2">
-        <v>240</v>
-      </c>
       <c r="M73" t="s" s="2">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="N73" s="2"/>
       <c r="O73" t="s" s="2">
@@ -9010,7 +9006,7 @@
         <v>72</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="AF73" t="s" s="2">
         <v>73</v>
@@ -9022,22 +9018,22 @@
         <v>72</v>
       </c>
       <c r="AI73" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AJ73" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D74" s="2"/>
       <c r="E74" t="s" s="2">
@@ -9050,25 +9046,25 @@
         <v>72</v>
       </c>
       <c r="H74" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I74" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="K74" t="s" s="2">
+        <v>242</v>
+      </c>
+      <c r="L74" t="s" s="2">
         <v>243</v>
       </c>
-      <c r="L74" t="s" s="2">
-        <v>244</v>
-      </c>
       <c r="M74" t="s" s="2">
+        <v>174</v>
+      </c>
+      <c r="N74" t="s" s="2">
         <v>175</v>
-      </c>
-      <c r="N74" t="s" s="2">
-        <v>176</v>
       </c>
       <c r="O74" t="s" s="2">
         <v>72</v>
@@ -9117,7 +9113,7 @@
         <v>72</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="AF74" t="s" s="2">
         <v>73</v>
@@ -9129,18 +9125,18 @@
         <v>72</v>
       </c>
       <c r="AI74" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AJ74" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AK74" t="s" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
@@ -9163,13 +9159,13 @@
         <v>72</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="K75" t="s" s="2">
+        <v>293</v>
+      </c>
+      <c r="L75" t="s" s="2">
         <v>294</v>
-      </c>
-      <c r="L75" t="s" s="2">
-        <v>295</v>
       </c>
       <c r="M75" s="2"/>
       <c r="N75" s="2"/>
@@ -9220,7 +9216,7 @@
         <v>72</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="AF75" t="s" s="2">
         <v>73</v>
@@ -9232,7 +9228,7 @@
         <v>72</v>
       </c>
       <c r="AI75" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AJ75" t="s" s="2">
         <v>72</v>
@@ -9243,7 +9239,7 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
@@ -9266,13 +9262,13 @@
         <v>72</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="K76" t="s" s="2">
+        <v>296</v>
+      </c>
+      <c r="L76" t="s" s="2">
         <v>297</v>
-      </c>
-      <c r="L76" t="s" s="2">
-        <v>298</v>
       </c>
       <c r="M76" s="2"/>
       <c r="N76" s="2"/>
@@ -9323,7 +9319,7 @@
         <v>72</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="AF76" t="s" s="2">
         <v>73</v>
@@ -9335,7 +9331,7 @@
         <v>72</v>
       </c>
       <c r="AI76" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AJ76" t="s" s="2">
         <v>72</v>
@@ -9346,7 +9342,7 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
@@ -9357,7 +9353,7 @@
         <v>73</v>
       </c>
       <c r="F77" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G77" t="s" s="2">
         <v>72</v>
@@ -9369,13 +9365,13 @@
         <v>72</v>
       </c>
       <c r="J77" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="K77" t="s" s="2">
         <v>143</v>
       </c>
-      <c r="K77" t="s" s="2">
+      <c r="L77" t="s" s="2">
         <v>144</v>
-      </c>
-      <c r="L77" t="s" s="2">
-        <v>145</v>
       </c>
       <c r="M77" s="2"/>
       <c r="N77" s="2"/>
@@ -9426,34 +9422,34 @@
         <v>72</v>
       </c>
       <c r="AE77" t="s" s="2">
+        <v>145</v>
+      </c>
+      <c r="AF77" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG77" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH77" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AI77" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AJ77" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AK77" t="s" s="2">
         <v>146</v>
-      </c>
-      <c r="AF77" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AG77" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH77" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AI77" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AJ77" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AK77" t="s" s="2">
-        <v>147</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" t="s" s="2">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D78" s="2"/>
       <c r="E78" t="s" s="2">
@@ -9472,16 +9468,16 @@
         <v>72</v>
       </c>
       <c r="J78" t="s" s="2">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="K78" t="s" s="2">
+        <v>238</v>
+      </c>
+      <c r="L78" t="s" s="2">
         <v>239</v>
       </c>
-      <c r="L78" t="s" s="2">
-        <v>240</v>
-      </c>
       <c r="M78" t="s" s="2">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="N78" s="2"/>
       <c r="O78" t="s" s="2">
@@ -9531,7 +9527,7 @@
         <v>72</v>
       </c>
       <c r="AE78" t="s" s="2">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="AF78" t="s" s="2">
         <v>73</v>
@@ -9543,22 +9539,22 @@
         <v>72</v>
       </c>
       <c r="AI78" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AJ78" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AK78" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" t="s" s="2">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D79" s="2"/>
       <c r="E79" t="s" s="2">
@@ -9571,25 +9567,25 @@
         <v>72</v>
       </c>
       <c r="H79" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I79" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J79" t="s" s="2">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="K79" t="s" s="2">
+        <v>242</v>
+      </c>
+      <c r="L79" t="s" s="2">
         <v>243</v>
       </c>
-      <c r="L79" t="s" s="2">
-        <v>244</v>
-      </c>
       <c r="M79" t="s" s="2">
+        <v>174</v>
+      </c>
+      <c r="N79" t="s" s="2">
         <v>175</v>
-      </c>
-      <c r="N79" t="s" s="2">
-        <v>176</v>
       </c>
       <c r="O79" t="s" s="2">
         <v>72</v>
@@ -9638,7 +9634,7 @@
         <v>72</v>
       </c>
       <c r="AE79" t="s" s="2">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="AF79" t="s" s="2">
         <v>73</v>
@@ -9650,18 +9646,18 @@
         <v>72</v>
       </c>
       <c r="AI79" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AJ79" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AK79" t="s" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" t="s" s="2">
@@ -9672,7 +9668,7 @@
         <v>73</v>
       </c>
       <c r="F80" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G80" t="s" s="2">
         <v>72</v>
@@ -9684,13 +9680,13 @@
         <v>72</v>
       </c>
       <c r="J80" t="s" s="2">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="K80" t="s" s="2">
+        <v>302</v>
+      </c>
+      <c r="L80" t="s" s="2">
         <v>303</v>
-      </c>
-      <c r="L80" t="s" s="2">
-        <v>304</v>
       </c>
       <c r="M80" s="2"/>
       <c r="N80" s="2"/>
@@ -9741,19 +9737,19 @@
         <v>72</v>
       </c>
       <c r="AE80" t="s" s="2">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="AF80" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG80" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AH80" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI80" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AJ80" t="s" s="2">
         <v>72</v>
@@ -9764,7 +9760,7 @@
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B81" s="2"/>
       <c r="C81" t="s" s="2">
@@ -9787,13 +9783,13 @@
         <v>72</v>
       </c>
       <c r="J81" t="s" s="2">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="K81" t="s" s="2">
+        <v>305</v>
+      </c>
+      <c r="L81" t="s" s="2">
         <v>306</v>
-      </c>
-      <c r="L81" t="s" s="2">
-        <v>307</v>
       </c>
       <c r="M81" s="2"/>
       <c r="N81" s="2"/>
@@ -9844,7 +9840,7 @@
         <v>72</v>
       </c>
       <c r="AE81" t="s" s="2">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="AF81" t="s" s="2">
         <v>73</v>
@@ -9856,7 +9852,7 @@
         <v>72</v>
       </c>
       <c r="AI81" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AJ81" t="s" s="2">
         <v>72</v>
@@ -9867,7 +9863,7 @@
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B82" s="2"/>
       <c r="C82" t="s" s="2">
@@ -9878,7 +9874,7 @@
         <v>73</v>
       </c>
       <c r="F82" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G82" t="s" s="2">
         <v>72</v>
@@ -9890,13 +9886,13 @@
         <v>72</v>
       </c>
       <c r="J82" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="K82" t="s" s="2">
         <v>143</v>
       </c>
-      <c r="K82" t="s" s="2">
+      <c r="L82" t="s" s="2">
         <v>144</v>
-      </c>
-      <c r="L82" t="s" s="2">
-        <v>145</v>
       </c>
       <c r="M82" s="2"/>
       <c r="N82" s="2"/>
@@ -9947,34 +9943,34 @@
         <v>72</v>
       </c>
       <c r="AE82" t="s" s="2">
+        <v>145</v>
+      </c>
+      <c r="AF82" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG82" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH82" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AI82" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AJ82" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AK82" t="s" s="2">
         <v>146</v>
-      </c>
-      <c r="AF82" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AG82" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH82" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AI82" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AJ82" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AK82" t="s" s="2">
-        <v>147</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B83" s="2"/>
       <c r="C83" t="s" s="2">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D83" s="2"/>
       <c r="E83" t="s" s="2">
@@ -9993,16 +9989,16 @@
         <v>72</v>
       </c>
       <c r="J83" t="s" s="2">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="K83" t="s" s="2">
+        <v>238</v>
+      </c>
+      <c r="L83" t="s" s="2">
         <v>239</v>
       </c>
-      <c r="L83" t="s" s="2">
-        <v>240</v>
-      </c>
       <c r="M83" t="s" s="2">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="N83" s="2"/>
       <c r="O83" t="s" s="2">
@@ -10052,7 +10048,7 @@
         <v>72</v>
       </c>
       <c r="AE83" t="s" s="2">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="AF83" t="s" s="2">
         <v>73</v>
@@ -10064,22 +10060,22 @@
         <v>72</v>
       </c>
       <c r="AI83" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AJ83" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AK83" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B84" s="2"/>
       <c r="C84" t="s" s="2">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D84" s="2"/>
       <c r="E84" t="s" s="2">
@@ -10092,25 +10088,25 @@
         <v>72</v>
       </c>
       <c r="H84" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I84" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J84" t="s" s="2">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="K84" t="s" s="2">
+        <v>242</v>
+      </c>
+      <c r="L84" t="s" s="2">
         <v>243</v>
       </c>
-      <c r="L84" t="s" s="2">
-        <v>244</v>
-      </c>
       <c r="M84" t="s" s="2">
+        <v>174</v>
+      </c>
+      <c r="N84" t="s" s="2">
         <v>175</v>
-      </c>
-      <c r="N84" t="s" s="2">
-        <v>176</v>
       </c>
       <c r="O84" t="s" s="2">
         <v>72</v>
@@ -10159,7 +10155,7 @@
         <v>72</v>
       </c>
       <c r="AE84" t="s" s="2">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="AF84" t="s" s="2">
         <v>73</v>
@@ -10171,18 +10167,18 @@
         <v>72</v>
       </c>
       <c r="AI84" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AJ84" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AK84" t="s" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B85" s="2"/>
       <c r="C85" t="s" s="2">
@@ -10190,10 +10186,10 @@
       </c>
       <c r="D85" s="2"/>
       <c r="E85" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F85" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G85" t="s" s="2">
         <v>72</v>
@@ -10205,13 +10201,13 @@
         <v>72</v>
       </c>
       <c r="J85" t="s" s="2">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="K85" t="s" s="2">
+        <v>311</v>
+      </c>
+      <c r="L85" t="s" s="2">
         <v>312</v>
-      </c>
-      <c r="L85" t="s" s="2">
-        <v>313</v>
       </c>
       <c r="M85" s="2"/>
       <c r="N85" s="2"/>
@@ -10262,19 +10258,19 @@
         <v>72</v>
       </c>
       <c r="AE85" t="s" s="2">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="AF85" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AG85" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AH85" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI85" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AJ85" t="s" s="2">
         <v>72</v>
@@ -10285,7 +10281,7 @@
     </row>
     <row r="86">
       <c r="A86" t="s" s="2">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B86" s="2"/>
       <c r="C86" t="s" s="2">
@@ -10293,10 +10289,10 @@
       </c>
       <c r="D86" s="2"/>
       <c r="E86" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F86" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G86" t="s" s="2">
         <v>72</v>
@@ -10308,13 +10304,13 @@
         <v>72</v>
       </c>
       <c r="J86" t="s" s="2">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="K86" t="s" s="2">
+        <v>314</v>
+      </c>
+      <c r="L86" t="s" s="2">
         <v>315</v>
-      </c>
-      <c r="L86" t="s" s="2">
-        <v>316</v>
       </c>
       <c r="M86" s="2"/>
       <c r="N86" s="2"/>
@@ -10365,19 +10361,19 @@
         <v>72</v>
       </c>
       <c r="AE86" t="s" s="2">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="AF86" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AG86" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AH86" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI86" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AJ86" t="s" s="2">
         <v>72</v>
@@ -10388,7 +10384,7 @@
     </row>
     <row r="87">
       <c r="A87" t="s" s="2">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B87" s="2"/>
       <c r="C87" t="s" s="2">
@@ -10411,13 +10407,13 @@
         <v>72</v>
       </c>
       <c r="J87" t="s" s="2">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="K87" t="s" s="2">
+        <v>317</v>
+      </c>
+      <c r="L87" t="s" s="2">
         <v>318</v>
-      </c>
-      <c r="L87" t="s" s="2">
-        <v>319</v>
       </c>
       <c r="M87" s="2"/>
       <c r="N87" s="2"/>
@@ -10468,7 +10464,7 @@
         <v>72</v>
       </c>
       <c r="AE87" t="s" s="2">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="AF87" t="s" s="2">
         <v>73</v>
@@ -10480,7 +10476,7 @@
         <v>72</v>
       </c>
       <c r="AI87" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AJ87" t="s" s="2">
         <v>72</v>
@@ -10491,7 +10487,7 @@
     </row>
     <row r="88">
       <c r="A88" t="s" s="2">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B88" s="2"/>
       <c r="C88" t="s" s="2">
@@ -10502,7 +10498,7 @@
         <v>73</v>
       </c>
       <c r="F88" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G88" t="s" s="2">
         <v>72</v>
@@ -10514,13 +10510,13 @@
         <v>72</v>
       </c>
       <c r="J88" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="K88" t="s" s="2">
         <v>143</v>
       </c>
-      <c r="K88" t="s" s="2">
+      <c r="L88" t="s" s="2">
         <v>144</v>
-      </c>
-      <c r="L88" t="s" s="2">
-        <v>145</v>
       </c>
       <c r="M88" s="2"/>
       <c r="N88" s="2"/>
@@ -10571,34 +10567,34 @@
         <v>72</v>
       </c>
       <c r="AE88" t="s" s="2">
+        <v>145</v>
+      </c>
+      <c r="AF88" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG88" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH88" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AI88" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AJ88" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AK88" t="s" s="2">
         <v>146</v>
-      </c>
-      <c r="AF88" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AG88" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH88" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AI88" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AJ88" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AK88" t="s" s="2">
-        <v>147</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s" s="2">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B89" s="2"/>
       <c r="C89" t="s" s="2">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D89" s="2"/>
       <c r="E89" t="s" s="2">
@@ -10617,16 +10613,16 @@
         <v>72</v>
       </c>
       <c r="J89" t="s" s="2">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="K89" t="s" s="2">
+        <v>238</v>
+      </c>
+      <c r="L89" t="s" s="2">
         <v>239</v>
       </c>
-      <c r="L89" t="s" s="2">
-        <v>240</v>
-      </c>
       <c r="M89" t="s" s="2">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="N89" s="2"/>
       <c r="O89" t="s" s="2">
@@ -10676,7 +10672,7 @@
         <v>72</v>
       </c>
       <c r="AE89" t="s" s="2">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="AF89" t="s" s="2">
         <v>73</v>
@@ -10688,22 +10684,22 @@
         <v>72</v>
       </c>
       <c r="AI89" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AJ89" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AK89" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s" s="2">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B90" s="2"/>
       <c r="C90" t="s" s="2">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D90" s="2"/>
       <c r="E90" t="s" s="2">
@@ -10716,25 +10712,25 @@
         <v>72</v>
       </c>
       <c r="H90" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I90" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J90" t="s" s="2">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="K90" t="s" s="2">
+        <v>242</v>
+      </c>
+      <c r="L90" t="s" s="2">
         <v>243</v>
       </c>
-      <c r="L90" t="s" s="2">
-        <v>244</v>
-      </c>
       <c r="M90" t="s" s="2">
+        <v>174</v>
+      </c>
+      <c r="N90" t="s" s="2">
         <v>175</v>
-      </c>
-      <c r="N90" t="s" s="2">
-        <v>176</v>
       </c>
       <c r="O90" t="s" s="2">
         <v>72</v>
@@ -10783,7 +10779,7 @@
         <v>72</v>
       </c>
       <c r="AE90" t="s" s="2">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="AF90" t="s" s="2">
         <v>73</v>
@@ -10795,18 +10791,18 @@
         <v>72</v>
       </c>
       <c r="AI90" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AJ90" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AK90" t="s" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s" s="2">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B91" s="2"/>
       <c r="C91" t="s" s="2">
@@ -10817,7 +10813,7 @@
         <v>73</v>
       </c>
       <c r="F91" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G91" t="s" s="2">
         <v>72</v>
@@ -10829,13 +10825,13 @@
         <v>72</v>
       </c>
       <c r="J91" t="s" s="2">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="K91" t="s" s="2">
+        <v>271</v>
+      </c>
+      <c r="L91" t="s" s="2">
         <v>272</v>
-      </c>
-      <c r="L91" t="s" s="2">
-        <v>273</v>
       </c>
       <c r="M91" s="2"/>
       <c r="N91" s="2"/>
@@ -10862,14 +10858,14 @@
         <v>72</v>
       </c>
       <c r="W91" t="s" s="2">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="X91" t="s" s="2">
+        <v>274</v>
+      </c>
+      <c r="Y91" t="s" s="2">
         <v>275</v>
       </c>
-      <c r="Y91" t="s" s="2">
-        <v>276</v>
-      </c>
       <c r="Z91" t="s" s="2">
         <v>72</v>
       </c>
@@ -10886,19 +10882,19 @@
         <v>72</v>
       </c>
       <c r="AE91" t="s" s="2">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="AF91" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG91" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AH91" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI91" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AJ91" t="s" s="2">
         <v>72</v>
@@ -10909,7 +10905,7 @@
     </row>
     <row r="92">
       <c r="A92" t="s" s="2">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B92" s="2"/>
       <c r="C92" t="s" s="2">
@@ -10920,7 +10916,7 @@
         <v>73</v>
       </c>
       <c r="F92" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G92" t="s" s="2">
         <v>72</v>
@@ -10932,13 +10928,13 @@
         <v>72</v>
       </c>
       <c r="J92" t="s" s="2">
+        <v>263</v>
+      </c>
+      <c r="K92" t="s" s="2">
         <v>264</v>
       </c>
-      <c r="K92" t="s" s="2">
-        <v>265</v>
-      </c>
       <c r="L92" t="s" s="2">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="M92" s="2"/>
       <c r="N92" s="2"/>
@@ -10989,19 +10985,19 @@
         <v>72</v>
       </c>
       <c r="AE92" t="s" s="2">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="AF92" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG92" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AH92" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI92" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AJ92" t="s" s="2">
         <v>72</v>
@@ -11012,7 +11008,7 @@
     </row>
     <row r="93">
       <c r="A93" t="s" s="2">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B93" s="2"/>
       <c r="C93" t="s" s="2">
@@ -11023,7 +11019,7 @@
         <v>73</v>
       </c>
       <c r="F93" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G93" t="s" s="2">
         <v>72</v>
@@ -11035,13 +11031,13 @@
         <v>72</v>
       </c>
       <c r="J93" t="s" s="2">
+        <v>267</v>
+      </c>
+      <c r="K93" t="s" s="2">
         <v>268</v>
       </c>
-      <c r="K93" t="s" s="2">
-        <v>269</v>
-      </c>
       <c r="L93" t="s" s="2">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="M93" s="2"/>
       <c r="N93" s="2"/>
@@ -11092,19 +11088,19 @@
         <v>72</v>
       </c>
       <c r="AE93" t="s" s="2">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="AF93" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG93" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AH93" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI93" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AJ93" t="s" s="2">
         <v>72</v>
@@ -11115,7 +11111,7 @@
     </row>
     <row r="94">
       <c r="A94" t="s" s="2">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B94" s="2"/>
       <c r="C94" t="s" s="2">
@@ -11126,7 +11122,7 @@
         <v>73</v>
       </c>
       <c r="F94" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G94" t="s" s="2">
         <v>72</v>
@@ -11138,13 +11134,13 @@
         <v>72</v>
       </c>
       <c r="J94" t="s" s="2">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="K94" t="s" s="2">
+        <v>328</v>
+      </c>
+      <c r="L94" t="s" s="2">
         <v>329</v>
-      </c>
-      <c r="L94" t="s" s="2">
-        <v>330</v>
       </c>
       <c r="M94" s="2"/>
       <c r="N94" s="2"/>
@@ -11195,19 +11191,19 @@
         <v>72</v>
       </c>
       <c r="AE94" t="s" s="2">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="AF94" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG94" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AH94" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI94" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AJ94" t="s" s="2">
         <v>72</v>
@@ -11218,7 +11214,7 @@
     </row>
     <row r="95">
       <c r="A95" t="s" s="2">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B95" s="2"/>
       <c r="C95" t="s" s="2">
@@ -11241,13 +11237,13 @@
         <v>72</v>
       </c>
       <c r="J95" t="s" s="2">
+        <v>331</v>
+      </c>
+      <c r="K95" t="s" s="2">
         <v>332</v>
       </c>
-      <c r="K95" t="s" s="2">
+      <c r="L95" t="s" s="2">
         <v>333</v>
-      </c>
-      <c r="L95" t="s" s="2">
-        <v>334</v>
       </c>
       <c r="M95" s="2"/>
       <c r="N95" s="2"/>
@@ -11298,7 +11294,7 @@
         <v>72</v>
       </c>
       <c r="AE95" t="s" s="2">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="AF95" t="s" s="2">
         <v>73</v>
@@ -11310,7 +11306,7 @@
         <v>72</v>
       </c>
       <c r="AI95" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AJ95" t="s" s="2">
         <v>72</v>
